--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,2728 +458,3300 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18.998</t>
+          <t>49.83</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.377</t>
+          <t>8.855</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12.464</t>
+          <t>29.803</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.249</t>
+          <t>7.597</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>28.817</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.254</t>
+          <t>8.218</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13.723</t>
+          <t>15.243</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.457</t>
+          <t>3.827</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19.228</t>
+          <t>50.987</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>8.536</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.864</t>
+          <t>32.475</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.588</t>
+          <t>7.669</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18.326</t>
+          <t>67.661</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>8.444</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12.317</t>
+          <t>45.332</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.401</t>
+          <t>11.441</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>75.309</t>
+          <t>29.261</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>8.658</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>56.419</t>
+          <t>15.154</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.474</t>
+          <t>3.831</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24.178</t>
+          <t>52.091</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.321</t>
+          <t>8.283</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.314</t>
+          <t>33.987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.039</t>
+          <t>7.672</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>70.235</t>
+          <t>29.485</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>8.351</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>54.403</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.775</t>
+          <t>3.884</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22.826</t>
+          <t>26.913</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>8.466</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16.354</t>
+          <t>13.218</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.784</t>
+          <t>3.435</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24.074</t>
+          <t>29.328</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>8.504</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16.314</t>
+          <t>14.924</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.807</t>
+          <t>3.712</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22.808</t>
+          <t>47.754</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>8.225</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16.28</t>
+          <t>29.732</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.855</t>
+          <t>7.598</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22.902</t>
+          <t>48.957</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>8.877</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16.428</t>
+          <t>30.372</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>7.422</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24.466</t>
+          <t>86.263</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>8.203</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17.889</t>
+          <t>59.791</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.868</t>
+          <t>14.812</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>485.58</t>
+          <t>69.392</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>8.347</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>377.943</t>
+          <t>46.842</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.264</t>
+          <t>11.286</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>47.898</t>
+          <t>29.291</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.877</t>
+          <t>8.266</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>34.582</t>
+          <t>15.505</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.472</t>
+          <t>4.001</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>133.045</t>
+          <t>29.366</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>8.359</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100.059</t>
+          <t>15.613</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.173</t>
+          <t>3.928</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>281.485</t>
+          <t>29.268</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>8.329</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215.818</t>
+          <t>15.565</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50.029</t>
+          <t>3.889</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>101.309</t>
+          <t>86.503</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>8.311</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>76.507</t>
+          <t>58.92</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.478</t>
+          <t>15.142</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20.743</t>
+          <t>163.893</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>8.172</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14.292</t>
+          <t>120.474</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.332</t>
+          <t>28.919</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>64.433</t>
+          <t>28.393</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>8.145</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>47.502</t>
+          <t>15.025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.095</t>
+          <t>3.733</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22.039</t>
+          <t>62.561</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>8.227</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15.408</t>
+          <t>40.772</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.621</t>
+          <t>10.681</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>36.182</t>
+          <t>46.09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>8.184</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>25.729</t>
+          <t>27.938</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.154</t>
+          <t>8.016</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>69.372</t>
+          <t>25.556</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>8.248</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>51.392</t>
+          <t>12.478</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13.372</t>
+          <t>3.392</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>54.619</t>
+          <t>61.83</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>8.146</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>40.009</t>
+          <t>39.414</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11.028</t>
+          <t>10.637</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>47.502</t>
+          <t>31.149</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>8.284</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>33.608</t>
+          <t>17.215</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.428</t>
+          <t>4.165</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23.666</t>
+          <t>123.065</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>8.338</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16.933</t>
+          <t>88.021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.916</t>
+          <t>22.193</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>183.444</t>
+          <t>28.836</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>8.246</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>139.582</t>
+          <t>15.214</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>35.067</t>
+          <t>3.828</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21.584</t>
+          <t>67.654</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>8.328</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>44.456</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.666</t>
+          <t>11.217</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>76.271</t>
+          <t>48.906</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.434</t>
+          <t>8.419</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>57.311</t>
+          <t>30.552</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14.331</t>
+          <t>7.556</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>43.509</t>
+          <t>28.946</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>8.283</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31.488</t>
+          <t>15.3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.715</t>
+          <t>3.896</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>164.538</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>8.319</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>124.513</t>
+          <t>12.021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>32.835</t>
+          <t>3.312</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>171.752</t>
+          <t>24.455</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>8.284</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>129.932</t>
+          <t>11.311</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>33.082</t>
+          <t>3.467</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>140.294</t>
+          <t>161.905</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.387</t>
+          <t>8.282</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>107.873</t>
+          <t>119.659</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26.147</t>
+          <t>29.129</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>25.519</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>8.509</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>66.834</t>
+          <t>12.143</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17.267</t>
+          <t>3.436</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>21.761</t>
+          <t>369.012</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>8.308</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15.143</t>
+          <t>275.936</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.917</t>
+          <t>72.761</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20.768</t>
+          <t>24.38</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.291</t>
+          <t>8.152</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14.122</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.598</t>
+          <t>3.147</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19.09</t>
+          <t>68.468</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>8.117</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>45.05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.467</t>
+          <t>12.646</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>36.969</t>
+          <t>160.805</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>8.167</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>25.941</t>
+          <t>117.29</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.829</t>
+          <t>29.5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18.233</t>
+          <t>28.857</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12.302</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.245</t>
+          <t>3.929</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>101.516</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>8.171</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>47.271</t>
+          <t>71.378</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11.173</t>
+          <t>17.942</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>34.565</t>
+          <t>24.85</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>8.183</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>27.043</t>
+          <t>11.946</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.374</t>
+          <t>3.308</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24.972</t>
+          <t>26.308</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>8.137</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18.153</t>
+          <t>13.077</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.959</t>
+          <t>3.508</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>92.183</t>
+          <t>27.205</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>8.229</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>70.734</t>
+          <t>13.932</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15.971</t>
+          <t>3.647</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>61.214</t>
+          <t>68.673</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>8.232</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>46.063</t>
+          <t>46.464</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11.426</t>
+          <t>11.539</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27.188</t>
+          <t>30.121</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.372</t>
+          <t>8.197</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>19.479</t>
+          <t>16.514</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>3.927</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>184.061</t>
+          <t>31.698</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>8.175</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>143.452</t>
+          <t>17.261</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>32.906</t>
+          <t>4.533</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>37.828</t>
+          <t>50.777</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>8.256</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>27.422</t>
+          <t>32.631</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.108</t>
+          <t>7.699</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>39.991</t>
+          <t>777.111</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>8.753</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>29.741</t>
+          <t>587.451</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.171</t>
+          <t>157.545</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20.746</t>
+          <t>28.917</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>8.303</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14.538</t>
+          <t>15.322</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.578</t>
+          <t>3.755</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>34.887</t>
+          <t>29.724</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>8.752</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>25.021</t>
+          <t>15.321</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6.831</t>
+          <t>3.803</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>28.058</t>
+          <t>27.381</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>9.203</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19.49</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.316</t>
+          <t>3.484</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>27.896</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>8.257</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19.416</t>
+          <t>17.461</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.232</t>
+          <t>4.153</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>84.575</t>
+          <t>30.648</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.194</t>
+          <t>8.614</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>62.015</t>
+          <t>16.414</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14.729</t>
+          <t>4.069</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>87.656</t>
+          <t>27.787</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>8.377</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>13.818</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15.546</t>
+          <t>3.603</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>158.796</t>
+          <t>80.302</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.195</t>
+          <t>8.132</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>118.507</t>
+          <t>54.516</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>33.558</t>
+          <t>14.134</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>96.935</t>
+          <t>171.639</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>74.851</t>
+          <t>124.468</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16.091</t>
+          <t>31.988</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>212.629</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.307</t>
+          <t>8.226</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>70.456</t>
+          <t>154.986</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17.985</t>
+          <t>39.814</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>96.923</t>
+          <t>44.997</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>8.303</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>71.924</t>
+          <t>27.556</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>19.886</t>
+          <t>6.977</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>87.184</t>
+          <t>46.159</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>8.171</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>65.279</t>
+          <t>28.116</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17.941</t>
+          <t>7.506</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>64.525</t>
+          <t>84.314</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>8.851</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>49.102</t>
+          <t>56.603</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11.434</t>
+          <t>15.277</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19.951</t>
+          <t>27.093</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>8.263</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13.727</t>
+          <t>13.619</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.514</t>
+          <t>3.526</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>23.958</t>
+          <t>44.454</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.267</t>
+          <t>8.197</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16.488</t>
+          <t>26.695</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.069</t>
+          <t>6.975</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>18.985</t>
+          <t>27.164</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>8.157</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12.832</t>
+          <t>13.953</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.478</t>
+          <t>3.619</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>40.154</t>
+          <t>27.468</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>8.366</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>29.721</t>
+          <t>13.752</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7.434</t>
+          <t>3.566</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>28.888</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>8.234</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10.927</t>
+          <t>15.386</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.141</t>
+          <t>3.805</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>19.609</t>
+          <t>25.677</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>8.187</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13.125</t>
+          <t>12.662</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.439</t>
+          <t>3.346</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>24.851</t>
+          <t>25.422</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>8.285</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>18.228</t>
+          <t>11.822</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.795</t>
+          <t>3.991</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20.318</t>
+          <t>30.831</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>8.316</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13.555</t>
+          <t>15.883</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.803</t>
+          <t>4.629</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>83.62</t>
+          <t>411.827</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>8.167</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>62.767</t>
+          <t>312.228</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15.095</t>
+          <t>78.272</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>41.213</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>8.045</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>13.244</t>
+          <t>24.364</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.493</t>
+          <t>6.642</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>26.737</t>
+          <t>27.361</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>7.974</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>19.647</t>
+          <t>13.829</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.291</t>
+          <t>3.502</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>26.608</t>
+          <t>25.746</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>7.982</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>19.551</t>
+          <t>12.798</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4.244</t>
+          <t>3.41</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>372.03</t>
+          <t>28.12</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>7.973</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>291.103</t>
+          <t>13.603</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>67.201</t>
+          <t>4.536</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>134.421</t>
+          <t>27.065</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>8.129</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>102.495</t>
+          <t>13.809</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>24.287</t>
+          <t>3.442</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>290.405</t>
+          <t>29.351</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>8.175</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>220.19</t>
+          <t>15.733</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>56.595</t>
+          <t>3.95</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>213.14</t>
+          <t>28.892</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>8.265</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>163.598</t>
+          <t>15.279</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>3.821</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1229.767</t>
+          <t>27.967</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>8.244</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>954.815</t>
+          <t>14.014</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>232.198</t>
+          <t>3.635</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1241.988</t>
+          <t>29.586</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>9.527</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>970.273</t>
+          <t>14.304</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>229.841</t>
+          <t>3.669</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1251.192</t>
+          <t>27.938</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>978.898</t>
+          <t>14.099</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>230.493</t>
+          <t>3.589</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>115.669</t>
+          <t>28.271</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>8.141</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>84.266</t>
+          <t>13.977</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>21.401</t>
+          <t>3.566</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>40.707</t>
+          <t>26.497</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>28.412</t>
+          <t>13.047</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.236</t>
+          <t>3.524</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20.626</t>
+          <t>28.036</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>8.027</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14.288</t>
+          <t>14.227</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.77</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>735.691</t>
+          <t>100.605</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>8.054</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>567.914</t>
+          <t>68.199</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>139.689</t>
+          <t>17.694</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21.263</t>
+          <t>27.109</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>7.782</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14.552</t>
+          <t>13.938</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.634</t>
+          <t>3.597</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>40.021</t>
+          <t>44.761</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>7.813</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>29.275</t>
+          <t>26.947</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7.594</t>
+          <t>7.362</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>21.013</t>
+          <t>47.763</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>8.013</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14.469</t>
+          <t>29.247</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3.541</t>
+          <t>8.195</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>39.722</t>
+          <t>45.144</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>7.878</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>29.039</t>
+          <t>28.029</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7.586</t>
+          <t>7.241</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>221.601</t>
+          <t>43.751</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>7.711</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>169.799</t>
+          <t>27.083</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>40.134</t>
+          <t>7.151</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>39.639</t>
+          <t>28.414</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>7.947</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>29.009</t>
+          <t>15.224</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7.466</t>
+          <t>3.804</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>93.346</t>
+          <t>27.869</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>7.766</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>71.188</t>
+          <t>14.452</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16.001</t>
+          <t>3.915</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>65.846</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.329</t>
+          <t>8.048</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>49.099</t>
+          <t>14.382</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>11.932</t>
+          <t>3.583</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57.832</t>
+          <t>26.605</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>7.574</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>41.044</t>
+          <t>13.473</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>11.465</t>
+          <t>3.534</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>39.883</t>
+          <t>59.783</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.251</t>
+          <t>7.741</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>27.739</t>
+          <t>38.863</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>7.175</t>
+          <t>10.376</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>47.875</t>
+          <t>55.245</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>7.531</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>36.402</t>
+          <t>35.466</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>8.044</t>
+          <t>9.813</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>48.76</t>
+          <t>45.021</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>7.523</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>36.732</t>
+          <t>27.394</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>8.571</t>
+          <t>7.262</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>99.441</t>
+          <t>41.967</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>7.673</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>74.647</t>
+          <t>25.213</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>16.335</t>
+          <t>6.855</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>38.342</t>
+          <t>28.137</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>7.605</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>27.41</t>
+          <t>15.158</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7.206</t>
+          <t>3.924</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>454.14</t>
+          <t>26.171</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>7.552</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>351.509</t>
+          <t>13.317</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>3.609</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>39.545</t>
+          <t>27.524</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>7.616</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>29.075</t>
+          <t>13.701</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>7.326</t>
+          <t>3.598</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>39.195</t>
+          <t>27.275</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>7.605</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>28.849</t>
+          <t>14.482</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.289</t>
+          <t>3.548</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>39.344</t>
+          <t>29.518</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>7.478</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>29.012</t>
+          <t>16.592</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>7.255</t>
+          <t>3.947</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>60.605</t>
+          <t>122.674</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>7.474</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>44.637</t>
+          <t>87.967</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10.889</t>
+          <t>22.302</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>37.294</t>
+          <t>89.797</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>7.539</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>26.236</t>
+          <t>62.88</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.917</t>
+          <t>15.335</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>137.164</t>
+          <t>29.207</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>7.502</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>102.748</t>
+          <t>15.232</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>3.581</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20.324</t>
+          <t>28.014</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>7.461</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>13.352</t>
+          <t>15.379</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3.525</t>
+          <t>3.719</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>100.689</t>
+          <t>26.775</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>7.469</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>77.076</t>
+          <t>13.469</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>18.171</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>21.381</t>
+          <t>153.449</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>7.452</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>14.067</t>
+          <t>110.119</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3.599</t>
+          <t>28.724</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>52.064</t>
+          <t>30.098</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>7.521</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>37.998</t>
+          <t>17.24</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10.169</t>
+          <t>3.815</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>42.236</t>
+          <t>25.963</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>7.499</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>30.599</t>
+          <t>13.316</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>7.522</t>
+          <t>3.535</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>56.804</t>
+          <t>28.035</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>7.462</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>42.48</t>
+          <t>15.315</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10.844</t>
+          <t>3.778</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>18.703</t>
+          <t>24.652</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>7.422</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12.571</t>
+          <t>12.335</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.374</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>52.385</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>7.449</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>37.759</t>
+          <t>15.178</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>3.798</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>161.083</t>
+          <t>108.009</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.211</t>
+          <t>7.386</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>121.132</t>
+          <t>78.006</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>31.632</t>
+          <t>18.455</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>39.979</t>
+          <t>27.735</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>7.304</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>29.524</t>
+          <t>15.034</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>7.391</t>
+          <t>3.921</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>40.121</t>
+          <t>81.655</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>7.443</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>56.144</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7.296</t>
+          <t>14.575</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>44.655</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.193</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12.474</t>
+          <t>28.044</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.408</t>
+          <t>7.281</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>144.804</t>
+          <t>46.649</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>7.443</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>110.816</t>
+          <t>29.467</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>26.823</t>
+          <t>7.423</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>70.281</t>
+          <t>27.957</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>51.947</t>
+          <t>15.319</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13.764</t>
+          <t>3.738</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>506.954</t>
+          <t>81.056</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>7.516</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>385.165</t>
+          <t>54.739</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>98.373</t>
+          <t>14.278</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>107.837</t>
+          <t>26.274</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>81.438</t>
+          <t>13.796</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>16.674</t>
+          <t>3.637</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>411.437</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>7.266</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14.974</t>
+          <t>309.776</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3.758</t>
+          <t>81.776</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>369.834</t>
+          <t>77.623</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>277.64</t>
+          <t>52.537</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>69.101</t>
+          <t>13.977</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>216.88</t>
+          <t>47.581</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>7.187</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>167.217</t>
+          <t>30.589</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>39.944</t>
+          <t>7.453</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>141.661</t>
+          <t>62.165</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>7.217</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>107.831</t>
+          <t>40.959</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>24.986</t>
+          <t>10.986</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>134.834</t>
+          <t>24.833</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.256</t>
+          <t>7.146</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>104.158</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>24.195</t>
+          <t>3.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>66.638</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>7.148</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>44.325</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>11.127</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>26.991</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>7.159</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.792</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>65.893</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>7.075</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>12.689</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>7.452</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>16.027</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>312.265</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>7.416</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>231.84</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>60.683</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>26.653</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>7.309</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>13.628</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.479</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>27.526</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>7.001</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>15.388</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.647</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>25.912</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>13.455</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.559</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>316.891</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>7.448</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>234.749</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>62.235</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>27.035</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>13.926</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>27.811</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>14.246</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.696</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7.322</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>25.774</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.835</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>44.56</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>7.089</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>28.061</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>7.188</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>51.859</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>7.118</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>34.459</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8.316</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>29.353</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>7.066</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>16.821</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.012</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>25.639</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>13.081</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.616</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>26.932</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>8.756</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>12.942</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>40.912</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>7.077</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>25.171</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6.875</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>66.213</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>7.484</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>44.026</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>11.364</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>26.968</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>7.073</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>14.628</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.807</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>7.067</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>44.897</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>10.951</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>48.752</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7.187</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>30.446</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>7.916</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>28.274</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7.155</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.848</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>16.936</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.887</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>62.743</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7.414</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>41.351</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>11.553</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>44.712</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>27.223</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>7.618</t>
         </is>
       </c>
     </row>

--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,166 +458,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>49.83</t>
+          <t>25.684</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8.855</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29.803</t>
+          <t>14.902</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.597</t>
+          <t>3.927</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28.817</t>
+          <t>22.166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8.218</t>
+          <t>2.917</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15.243</t>
+          <t>13.609</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50.987</t>
+          <t>25.701</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8.536</t>
+          <t>3.244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>32.475</t>
+          <t>15.404</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.669</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>67.661</t>
+          <t>24.349</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.444</t>
+          <t>2.935</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45.332</t>
+          <t>14.416</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.441</t>
+          <t>4.038</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29.261</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8.658</t>
+          <t>3.114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.154</t>
+          <t>14.556</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.831</t>
+          <t>3.734</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>52.091</t>
+          <t>22.592</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.283</t>
+          <t>3.078</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33.987</t>
+          <t>14.033</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.672</t>
+          <t>3.541</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29.485</t>
+          <t>22.528</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.351</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>13.764</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.884</t>
+          <t>3.615</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26.913</t>
+          <t>21.564</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.466</t>
+          <t>2.981</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,882 +627,882 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.435</t>
+          <t>3.645</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29.328</t>
+          <t>61.612</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.504</t>
+          <t>2.851</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14.924</t>
+          <t>43.395</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.712</t>
+          <t>11.29</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>47.754</t>
+          <t>24.157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8.225</t>
+          <t>2.913</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29.732</t>
+          <t>15.664</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.598</t>
+          <t>3.981</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>48.957</t>
+          <t>140.127</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.877</t>
+          <t>3.082</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30.372</t>
+          <t>103.387</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.422</t>
+          <t>26.265</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>86.263</t>
+          <t>27.086</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8.203</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>59.791</t>
+          <t>16.277</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14.812</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>69.392</t>
+          <t>24.186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8.347</t>
+          <t>3.001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>46.842</t>
+          <t>15.835</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.286</t>
+          <t>3.775</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>29.291</t>
+          <t>23.317</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8.266</t>
+          <t>2.933</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15.505</t>
+          <t>15.029</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.001</t>
+          <t>3.811</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>29.366</t>
+          <t>23.922</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8.359</t>
+          <t>3.044</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.613</t>
+          <t>14.974</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.928</t>
+          <t>4.334</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>29.268</t>
+          <t>19.697</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.329</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15.565</t>
+          <t>12.082</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.889</t>
+          <t>3.262</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>86.503</t>
+          <t>23.558</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8.311</t>
+          <t>2.827</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>58.92</t>
+          <t>15.535</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15.142</t>
+          <t>3.727</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>163.893</t>
+          <t>36.182</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.172</t>
+          <t>2.845</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>120.474</t>
+          <t>24.567</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28.919</t>
+          <t>6.672</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>28.393</t>
+          <t>23.787</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8.145</t>
+          <t>2.887</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15.025</t>
+          <t>14.669</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.733</t>
+          <t>3.454</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>62.561</t>
+          <t>23.068</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8.227</t>
+          <t>2.893</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>40.772</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.681</t>
+          <t>3.721</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>46.09</t>
+          <t>22.663</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8.184</t>
+          <t>2.901</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27.938</t>
+          <t>13.727</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.016</t>
+          <t>3.602</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25.556</t>
+          <t>22.421</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8.248</t>
+          <t>2.923</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12.478</t>
+          <t>13.514</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.392</t>
+          <t>3.549</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>61.83</t>
+          <t>22.459</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8.146</t>
+          <t>2.808</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>39.414</t>
+          <t>13.677</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.637</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31.149</t>
+          <t>22.171</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.284</t>
+          <t>2.901</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17.215</t>
+          <t>13.764</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.165</t>
+          <t>3.568</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>123.065</t>
+          <t>37.547</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8.338</t>
+          <t>2.752</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>88.021</t>
+          <t>25.735</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.193</t>
+          <t>6.661</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>28.836</t>
+          <t>76.196</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8.246</t>
+          <t>2.816</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15.214</t>
+          <t>55.234</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.828</t>
+          <t>13.597</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>67.654</t>
+          <t>35.139</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8.328</t>
+          <t>2.854</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>44.456</t>
+          <t>23.985</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11.217</t>
+          <t>6.429</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>48.906</t>
+          <t>93.181</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8.419</t>
+          <t>2.819</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30.552</t>
+          <t>67.393</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.556</t>
+          <t>17.564</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>28.946</t>
+          <t>246.961</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8.283</t>
+          <t>2.815</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15.3</t>
+          <t>183.731</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.896</t>
+          <t>47.244</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>37.236</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8.319</t>
+          <t>2.883</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12.021</t>
+          <t>25.189</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.312</t>
+          <t>6.69</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>24.455</t>
+          <t>56.023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8.284</t>
+          <t>2.772</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11.311</t>
+          <t>39.988</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.467</t>
+          <t>10.503</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>161.905</t>
+          <t>55.516</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8.282</t>
+          <t>2.786</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>119.659</t>
+          <t>39.322</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>29.129</t>
+          <t>10.42</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25.519</t>
+          <t>18.735</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8.509</t>
+          <t>2.785</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12.143</t>
+          <t>11.426</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.436</t>
+          <t>3.266</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>369.012</t>
+          <t>36.114</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8.308</t>
+          <t>2.839</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>275.936</t>
+          <t>24.625</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>72.761</t>
+          <t>6.584</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24.38</t>
+          <t>20.272</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8.152</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.147</t>
+          <t>3.421</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>68.468</t>
+          <t>61.377</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8.117</t>
+          <t>2.656</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>45.05</t>
+          <t>42.306</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.646</t>
+          <t>10.634</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>160.805</t>
+          <t>23.208</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8.167</t>
+          <t>2.712</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>117.29</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>3.706</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>28.857</t>
+          <t>22.013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8.215</t>
+          <t>2.672</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>14.217</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.929</t>
+          <t>3.649</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>101.516</t>
+          <t>22.829</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8.171</t>
+          <t>2.889</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>71.378</t>
+          <t>14.753</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17.942</t>
+          <t>3.742</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>79.731</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8.183</t>
+          <t>2.671</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11.946</t>
+          <t>57.269</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.308</t>
+          <t>14.253</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26.308</t>
+          <t>22.841</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8.137</t>
+          <t>2.647</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13.077</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.508</t>
+          <t>3.704</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27.205</t>
+          <t>22.962</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8.229</t>
+          <t>2.736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13.932</t>
+          <t>14.602</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.647</t>
+          <t>3.716</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>68.673</t>
+          <t>61.356</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8.232</t>
+          <t>2.654</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>46.464</t>
+          <t>43.056</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11.539</t>
+          <t>10.491</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30.121</t>
+          <t>22.367</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8.197</t>
+          <t>2.728</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16.514</t>
+          <t>14.543</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.927</t>
+          <t>3.671</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31.698</t>
+          <t>22.837</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8.175</t>
+          <t>2.757</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17.261</t>
+          <t>14.493</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.533</t>
+          <t>3.719</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>50.777</t>
+          <t>22.832</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8.256</t>
+          <t>2.682</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>32.631</t>
+          <t>14.534</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.699</t>
+          <t>3.704</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>777.111</t>
+          <t>23.298</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8.753</t>
+          <t>2.672</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>587.451</t>
+          <t>14.846</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>157.545</t>
+          <t>3.794</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>28.917</t>
+          <t>22.591</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>2.769</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15.322</t>
+          <t>14.645</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1514,2244 +1514,2200 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>29.724</t>
+          <t>22.451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8.752</t>
+          <t>2.653</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15.321</t>
+          <t>14.615</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.803</t>
+          <t>3.755</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>27.381</t>
+          <t>22.585</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9.203</t>
+          <t>2.743</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>14.645</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.484</t>
+          <t>3.761</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>23.317</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8.257</t>
+          <t>2.782</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17.461</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.153</t>
+          <t>3.716</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30.648</t>
+          <t>41.238</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8.614</t>
+          <t>2.729</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16.414</t>
+          <t>27.612</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.069</t>
+          <t>6.93</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>27.787</t>
+          <t>58.299</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8.377</t>
+          <t>2.727</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13.818</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.603</t>
+          <t>10.443</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>80.302</t>
+          <t>43.849</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8.132</t>
+          <t>2.632</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54.516</t>
+          <t>29.406</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14.134</t>
+          <t>7.211</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>171.639</t>
+          <t>59.939</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>2.583</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>124.468</t>
+          <t>42.298</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>31.988</t>
+          <t>10.555</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>212.629</t>
+          <t>41.175</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8.226</t>
+          <t>2.594</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>154.986</t>
+          <t>29.195</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>39.814</t>
+          <t>7.247</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>44.997</t>
+          <t>22.378</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>2.563</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>27.556</t>
+          <t>14.548</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6.977</t>
+          <t>3.718</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>46.159</t>
+          <t>22.353</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8.171</t>
+          <t>2.618</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>28.116</t>
+          <t>14.632</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.506</t>
+          <t>3.691</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>84.314</t>
+          <t>22.371</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8.851</t>
+          <t>2.568</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>56.603</t>
+          <t>14.627</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15.277</t>
+          <t>3.743</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>27.093</t>
+          <t>22.361</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8.263</t>
+          <t>2.603</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13.619</t>
+          <t>14.536</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.526</t>
+          <t>3.666</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>44.454</t>
+          <t>22.268</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8.197</t>
+          <t>2.606</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>26.695</t>
+          <t>14.604</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6.975</t>
+          <t>3.658</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>27.164</t>
+          <t>46.788</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8.157</t>
+          <t>3.318</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13.953</t>
+          <t>30.491</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.619</t>
+          <t>8.327</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>27.468</t>
+          <t>19.893</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8.366</t>
+          <t>2.575</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>13.752</t>
+          <t>12.475</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.566</t>
+          <t>3.265</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>28.888</t>
+          <t>54.747</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8.234</t>
+          <t>2.544</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15.386</t>
+          <t>39.149</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.805</t>
+          <t>10.376</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>25.677</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8.187</t>
+          <t>2.575</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12.662</t>
+          <t>14.243</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.346</t>
+          <t>3.66</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>25.422</t>
+          <t>21.877</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8.285</t>
+          <t>2.528</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11.822</t>
+          <t>14.202</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.991</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30.831</t>
+          <t>22.782</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8.316</t>
+          <t>2.547</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15.883</t>
+          <t>14.561</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4.629</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>411.827</t>
+          <t>21.976</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8.167</t>
+          <t>2.559</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>312.228</t>
+          <t>14.251</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>78.272</t>
+          <t>3.622</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41.213</t>
+          <t>22.578</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8.045</t>
+          <t>2.564</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>24.364</t>
+          <t>14.512</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.642</t>
+          <t>3.624</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>27.361</t>
+          <t>21.993</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.974</t>
+          <t>2.571</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>13.829</t>
+          <t>14.438</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.502</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25.746</t>
+          <t>45.018</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.982</t>
+          <t>2.662</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12.798</t>
+          <t>33.028</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>7.375</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>28.12</t>
+          <t>20.229</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.973</t>
+          <t>2.896</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13.603</t>
+          <t>12.424</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4.536</t>
+          <t>3.432</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>27.065</t>
+          <t>23.177</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8.129</t>
+          <t>2.656</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>13.809</t>
+          <t>15.151</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.442</t>
+          <t>3.803</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>29.351</t>
+          <t>23.135</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8.175</t>
+          <t>2.718</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15.733</t>
+          <t>15.083</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.711</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>28.892</t>
+          <t>41.589</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8.265</t>
+          <t>2.773</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15.279</t>
+          <t>29.521</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.821</t>
+          <t>7.028</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>27.967</t>
+          <t>57.876</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8.244</t>
+          <t>2.594</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>14.014</t>
+          <t>40.681</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.635</t>
+          <t>10.409</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>29.586</t>
+          <t>65.875</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9.527</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14.304</t>
+          <t>47.753</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.669</t>
+          <t>12.996</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>27.938</t>
+          <t>49.555</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>2.798</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14.099</t>
+          <t>34.662</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3.589</t>
+          <t>9.438</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>28.271</t>
+          <t>3.259</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8.141</t>
+          <t>2.271</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13.977</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.566</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>26.497</t>
+          <t>23.753</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>2.297</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13.047</t>
+          <t>14.266</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.524</t>
+          <t>3.583</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>28.036</t>
+          <t>20.501</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8.027</t>
+          <t>2.283</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14.227</t>
+          <t>13.006</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.476</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>100.605</t>
+          <t>19.322</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8.054</t>
+          <t>2.307</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>68.199</t>
+          <t>12.222</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17.694</t>
+          <t>3.366</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>27.109</t>
+          <t>19.357</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.782</t>
+          <t>2.314</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13.938</t>
+          <t>12.235</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.597</t>
+          <t>3.391</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>44.761</t>
+          <t>22.376</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.813</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>26.947</t>
+          <t>13.925</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7.362</t>
+          <t>3.605</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>47.763</t>
+          <t>22.548</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8.013</t>
+          <t>2.314</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>29.247</t>
+          <t>14.104</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8.195</t>
+          <t>3.587</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>45.144</t>
+          <t>22.356</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.878</t>
+          <t>2.361</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>28.029</t>
+          <t>14.056</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7.241</t>
+          <t>3.617</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>43.751</t>
+          <t>22.157</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.711</t>
+          <t>2.282</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>27.083</t>
+          <t>14.044</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7.151</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>28.414</t>
+          <t>22.141</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.947</t>
+          <t>2.336</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15.224</t>
+          <t>13.985</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3.804</t>
+          <t>3.518</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>27.869</t>
+          <t>22.375</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.766</t>
+          <t>2.261</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>14.452</t>
+          <t>14.006</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.915</t>
+          <t>3.552</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>22.099</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8.048</t>
+          <t>2.249</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14.382</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3.583</t>
+          <t>3.551</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>26.605</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.574</t>
+          <t>2.225</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>13.473</t>
+          <t>13.764</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.534</t>
+          <t>3.563</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>59.783</t>
+          <t>21.605</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.741</t>
+          <t>2.239</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>38.863</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10.376</t>
+          <t>3.808</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>55.245</t>
+          <t>21.547</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.531</t>
+          <t>2.232</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>35.466</t>
+          <t>13.554</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.813</t>
+          <t>3.527</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>45.021</t>
+          <t>22.516</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7.523</t>
+          <t>2.247</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>27.394</t>
+          <t>14.014</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>7.262</t>
+          <t>3.627</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>41.967</t>
+          <t>22.552</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.673</t>
+          <t>2.214</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>25.213</t>
+          <t>14.051</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>6.855</t>
+          <t>3.603</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>28.137</t>
+          <t>21.509</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.605</t>
+          <t>2.208</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15.158</t>
+          <t>13.547</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.924</t>
+          <t>3.508</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>26.171</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.552</t>
+          <t>2.202</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13.317</t>
+          <t>13.537</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.609</t>
+          <t>3.466</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>27.524</t>
+          <t>57.505</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.616</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>13.701</t>
+          <t>40.582</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.598</t>
+          <t>10.485</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>27.275</t>
+          <t>57.72</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.605</t>
+          <t>2.207</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14.482</t>
+          <t>40.659</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.548</t>
+          <t>10.616</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>29.518</t>
+          <t>57.394</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.478</t>
+          <t>2.208</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16.592</t>
+          <t>40.568</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3.947</t>
+          <t>10.393</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>122.674</t>
+          <t>57.722</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.474</t>
+          <t>2.156</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>87.967</t>
+          <t>40.742</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>22.302</t>
+          <t>10.591</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>89.797</t>
+          <t>57.834</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.539</t>
+          <t>2.234</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>62.88</t>
+          <t>40.689</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>15.335</t>
+          <t>10.634</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29.207</t>
+          <t>58.078</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.502</t>
+          <t>2.202</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15.232</t>
+          <t>40.667</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.581</t>
+          <t>10.941</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>28.014</t>
+          <t>21.721</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.461</t>
+          <t>2.237</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15.379</t>
+          <t>13.805</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3.719</t>
+          <t>3.539</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>26.775</t>
+          <t>21.638</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.469</t>
+          <t>2.165</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>13.469</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.531</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>153.449</t>
+          <t>21.657</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.452</t>
+          <t>2.152</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>110.119</t>
+          <t>13.924</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>28.724</t>
+          <t>3.527</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.098</t>
+          <t>21.604</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.521</t>
+          <t>2.132</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17.24</t>
+          <t>13.885</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.815</t>
+          <t>3.567</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>25.963</t>
+          <t>21.823</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.499</t>
+          <t>2.124</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>13.316</t>
+          <t>13.995</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.535</t>
+          <t>3.562</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>28.035</t>
+          <t>21.612</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.462</t>
+          <t>2.123</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>15.315</t>
+          <t>13.825</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.778</t>
+          <t>3.549</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>24.652</t>
+          <t>38.944</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.422</t>
+          <t>2.167</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12.335</t>
+          <t>27.003</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.07</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>57.286</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7.449</t>
+          <t>2.159</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>15.178</t>
+          <t>40.438</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3.798</t>
+          <t>10.577</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>108.009</t>
+          <t>38.938</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.386</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>78.006</t>
+          <t>27.007</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>18.455</t>
+          <t>7.076</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>27.735</t>
+          <t>57.316</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.304</t>
+          <t>2.094</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>15.034</t>
+          <t>40.507</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.921</t>
+          <t>10.563</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>81.655</t>
+          <t>21.302</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.443</t>
+          <t>2.158</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>56.144</t>
+          <t>13.501</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>14.575</t>
+          <t>3.526</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>44.655</t>
+          <t>23.343</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>3.852</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>28.044</t>
+          <t>13.831</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>7.281</t>
+          <t>3.522</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>46.649</t>
+          <t>3.273</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.443</t>
+          <t>2.226</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>29.467</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>7.423</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>27.957</t>
+          <t>3.175</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>15.319</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.738</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>81.056</t>
+          <t>21.265</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.516</t>
+          <t>2.128</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>54.739</t>
+          <t>13.461</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>14.278</t>
+          <t>3.526</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>26.274</t>
+          <t>36.573</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>2.192</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>13.796</t>
+          <t>25.287</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3.637</t>
+          <t>6.932</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>411.437</t>
+          <t>17.361</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.266</t>
+          <t>2.196</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>309.776</t>
+          <t>10.298</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>81.776</t>
+          <t>3.066</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>77.623</t>
+          <t>23.611</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>2.334</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>52.537</t>
+          <t>15.465</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>13.977</t>
+          <t>3.632</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>47.581</t>
+          <t>39.149</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.187</t>
+          <t>2.173</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>30.589</t>
+          <t>27.481</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>7.453</t>
+          <t>6.983</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>62.165</t>
+          <t>3.176</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.217</t>
+          <t>2.144</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>40.959</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10.986</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>24.833</t>
+          <t>19.237</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.146</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>12.319</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3.504</t>
+          <t>3.353</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>66.638</t>
+          <t>19.009</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.148</t>
+          <t>2.162</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>44.325</t>
+          <t>12.184</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>11.127</t>
+          <t>3.322</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>26.991</t>
+          <t>37.834</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.159</t>
+          <t>1.923</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>26.036</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3.792</t>
+          <t>6.729</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>65.893</t>
+          <t>22.404</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.075</t>
+          <t>2.072</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>13.932</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>12.689</t>
+          <t>3.565</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>29.36</t>
+          <t>3.163</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.452</t>
+          <t>2.113</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>16.027</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>312.265</t>
+          <t>3.035</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.416</t>
+          <t>2.007</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>231.84</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>60.683</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>26.653</t>
+          <t>20.16</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.309</t>
+          <t>2.028</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>13.628</t>
+          <t>12.938</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3.479</t>
+          <t>3.481</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>27.526</t>
+          <t>57.055</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.001</t>
+          <t>1.997</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>15.388</t>
+          <t>40.503</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3.647</t>
+          <t>10.689</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>25.912</t>
+          <t>2.971</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>1.962</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>13.455</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3.559</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>316.891</t>
+          <t>2.954</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.448</t>
+          <t>1.952</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>234.749</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>62.235</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>27.035</t>
+          <t>2.964</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>1.965</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>13.926</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3.816</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>27.811</t>
+          <t>22.532</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>1.905</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>14.246</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3.696</t>
+          <t>3.598</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>41.87</t>
+          <t>21.952</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.322</t>
+          <t>1.917</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>25.774</t>
+          <t>13.662</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>6.835</t>
+          <t>3.617</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>44.56</t>
+          <t>21.248</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.089</t>
+          <t>2.052</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>28.061</t>
+          <t>13.486</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>7.188</t>
+          <t>3.413</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>51.859</t>
+          <t>54.584</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.118</t>
+          <t>1.886</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>34.459</t>
+          <t>38.611</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>8.316</t>
+          <t>10.798</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>29.353</t>
+          <t>49.216</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.066</t>
+          <t>1.827</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>16.821</t>
+          <t>35.128</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4.012</t>
+          <t>9.956</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>25.639</t>
+          <t>100.337</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>1.979</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>13.081</t>
+          <t>73.633</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3.616</t>
+          <t>20.147</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>26.932</t>
+          <t>61.882</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>8.756</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12.942</t>
+          <t>44.875</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>12.936</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>40.912</t>
+          <t>21.802</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.077</t>
+          <t>1.598</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>25.171</t>
+          <t>14.312</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.875</t>
+          <t>3.677</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>66.213</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.484</t>
+          <t>1.755</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>44.026</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>11.364</t>
+          <t>3.687</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>26.968</t>
+          <t>65.61</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.073</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>14.628</t>
+          <t>47.259</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3.807</t>
+          <t>13.159</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>66.48</t>
+          <t>76.983</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.067</t>
+          <t>1.715</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>44.897</t>
+          <t>56.724</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10.951</t>
+          <t>16.035</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>48.752</t>
+          <t>31.842</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.187</t>
+          <t>1.544</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>30.446</t>
+          <t>22.358</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>7.916</t>
+          <t>6.348</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>28.274</t>
+          <t>63.825</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.155</t>
+          <t>1.556</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>46.532</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3.848</t>
+          <t>12.764</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>44.676</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>1.429</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16.936</t>
+          <t>31.835</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3.887</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>62.743</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>7.414</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>41.351</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>11.553</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>44.712</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>27.223</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>7.618</t>
+          <t>9.224</t>
         </is>
       </c>
     </row>

--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,3256 +458,3300 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25.684</t>
+          <t>27.28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.902</t>
+          <t>15.316</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.927</t>
+          <t>3.809</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22.166</t>
+          <t>24.365</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.917</t>
+          <t>5.214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13.609</t>
+          <t>13.869</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.519</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25.701</t>
+          <t>23.6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.244</t>
+          <t>5.266</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.404</t>
+          <t>13.081</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.578</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24.349</t>
+          <t>23.939</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.935</t>
+          <t>5.128</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14.416</t>
+          <t>13.502</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.038</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>23.7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.114</t>
+          <t>5.085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.556</t>
+          <t>13.267</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.734</t>
+          <t>3.645</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22.592</t>
+          <t>99.907</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.078</t>
+          <t>5.157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.033</t>
+          <t>71.718</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.541</t>
+          <t>17.763</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22.528</t>
+          <t>44.301</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>5.107</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13.764</t>
+          <t>29.713</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.615</t>
+          <t>7.396</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21.564</t>
+          <t>57.646</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.981</t>
+          <t>5.074</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13.218</t>
+          <t>38.82</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.645</t>
+          <t>10.512</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>61.612</t>
+          <t>45.053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.851</t>
+          <t>5.066</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>43.395</t>
+          <t>30.203</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>7.404</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24.157</t>
+          <t>44.645</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.913</t>
+          <t>5.055</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15.664</t>
+          <t>28.581</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.981</t>
+          <t>7.668</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>140.127</t>
+          <t>24.008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3.082</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>103.387</t>
+          <t>13.542</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.265</t>
+          <t>3.525</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27.086</t>
+          <t>132.749</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.141</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16.277</t>
+          <t>96.456</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>24.922</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24.186</t>
+          <t>40.239</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.001</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15.835</t>
+          <t>26.074</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.775</t>
+          <t>6.956</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23.317</t>
+          <t>39.677</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.933</t>
+          <t>4.997</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15.029</t>
+          <t>25.586</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.811</t>
+          <t>6.964</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23.922</t>
+          <t>176.07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.044</t>
+          <t>5.023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14.974</t>
+          <t>129.829</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.334</t>
+          <t>34.681</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19.697</t>
+          <t>139.912</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>5.034</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12.082</t>
+          <t>101.469</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.262</t>
+          <t>25.837</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>23.558</t>
+          <t>47.371</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.827</t>
+          <t>5.329</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15.535</t>
+          <t>32.023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.727</t>
+          <t>7.335</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>36.182</t>
+          <t>234.514</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.845</t>
+          <t>4.901</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24.567</t>
+          <t>174.626</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.672</t>
+          <t>45.153</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>23.787</t>
+          <t>45.671</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.887</t>
+          <t>5.117</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14.669</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.454</t>
+          <t>7.454</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>23.068</t>
+          <t>797.974</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.893</t>
+          <t>5.023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>599.23</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.721</t>
+          <t>169.703</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22.663</t>
+          <t>22.826</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.901</t>
+          <t>4.982</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13.727</t>
+          <t>12.753</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.602</t>
+          <t>3.439</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.421</t>
+          <t>22.863</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.923</t>
+          <t>4.975</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13.514</t>
+          <t>12.877</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.549</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22.459</t>
+          <t>26.32</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.808</t>
+          <t>4.965</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13.677</t>
+          <t>13.531</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.548</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22.171</t>
+          <t>22.749</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.901</t>
+          <t>4.991</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13.764</t>
+          <t>12.722</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.568</t>
+          <t>3.419</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>37.547</t>
+          <t>25.311</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.752</t>
+          <t>4.978</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25.735</t>
+          <t>15.064</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.661</t>
+          <t>3.705</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>76.196</t>
+          <t>22.019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.816</t>
+          <t>5.031</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>55.234</t>
+          <t>12.195</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13.597</t>
+          <t>3.368</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35.139</t>
+          <t>23.944</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2.854</t>
+          <t>5.123</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23.985</t>
+          <t>13.318</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.429</t>
+          <t>3.881</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>93.181</t>
+          <t>60.049</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.819</t>
+          <t>5.368</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>67.393</t>
+          <t>41.15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17.564</t>
+          <t>10.313</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>246.961</t>
+          <t>22.445</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.815</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>183.731</t>
+          <t>12.501</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.244</t>
+          <t>3.417</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37.236</t>
+          <t>21.198</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.883</t>
+          <t>5.002</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25.189</t>
+          <t>11.667</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>3.222</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>56.023</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.772</t>
+          <t>4.938</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>39.988</t>
+          <t>12.704</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.503</t>
+          <t>3.493</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>55.516</t>
+          <t>22.908</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2.786</t>
+          <t>4.913</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>39.322</t>
+          <t>12.797</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>3.451</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18.735</t>
+          <t>22.603</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.785</t>
+          <t>5.007</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11.426</t>
+          <t>12.582</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.266</t>
+          <t>3.438</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>36.114</t>
+          <t>38.864</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.839</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>24.625</t>
+          <t>25.089</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6.584</t>
+          <t>6.734</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20.272</t>
+          <t>22.004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>5.317</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12.041</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.421</t>
+          <t>3.253</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>61.377</t>
+          <t>22.534</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.656</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>42.306</t>
+          <t>12.576</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.634</t>
+          <t>3.442</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>23.208</t>
+          <t>22.439</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.712</t>
+          <t>4.924</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>12.601</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.706</t>
+          <t>3.395</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22.013</t>
+          <t>22.56</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.672</t>
+          <t>4.916</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14.217</t>
+          <t>12.573</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.649</t>
+          <t>3.505</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22.829</t>
+          <t>21.309</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.889</t>
+          <t>4.946</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14.753</t>
+          <t>11.805</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.742</t>
+          <t>3.244</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>79.731</t>
+          <t>62.88</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2.671</t>
+          <t>4.863</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>57.269</t>
+          <t>44.374</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14.253</t>
+          <t>10.952</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22.841</t>
+          <t>21.905</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.647</t>
+          <t>4.839</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>12.237</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.704</t>
+          <t>3.347</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22.962</t>
+          <t>24.243</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.736</t>
+          <t>4.837</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14.602</t>
+          <t>13.886</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.716</t>
+          <t>3.519</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>61.356</t>
+          <t>21.757</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2.654</t>
+          <t>4.835</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43.056</t>
+          <t>12.189</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.491</t>
+          <t>3.355</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22.367</t>
+          <t>22.022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.728</t>
+          <t>4.796</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14.543</t>
+          <t>12.426</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.671</t>
+          <t>3.374</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22.837</t>
+          <t>20.623</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.757</t>
+          <t>4.947</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14.493</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.719</t>
+          <t>3.148</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22.832</t>
+          <t>42.275</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.682</t>
+          <t>4.815</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14.534</t>
+          <t>28.277</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.704</t>
+          <t>7.288</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>23.298</t>
+          <t>306.935</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2.672</t>
+          <t>5.421</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14.846</t>
+          <t>231.539</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.794</t>
+          <t>60.616</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>22.591</t>
+          <t>26.646</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2.769</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14.645</t>
+          <t>16.242</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.755</t>
+          <t>3.898</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22.451</t>
+          <t>26.338</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.653</t>
+          <t>4.884</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14.615</t>
+          <t>16.039</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.755</t>
+          <t>3.905</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>22.585</t>
+          <t>25.102</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2.743</t>
+          <t>4.922</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14.645</t>
+          <t>15.011</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.761</t>
+          <t>3.675</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>23.317</t>
+          <t>144.255</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.782</t>
+          <t>4.898</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>105.489</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.716</t>
+          <t>28.002</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>41.238</t>
+          <t>21.996</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.729</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>27.612</t>
+          <t>12.394</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>3.375</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>58.299</t>
+          <t>58.081</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.727</t>
+          <t>4.846</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>39.096</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.443</t>
+          <t>10.433</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>43.849</t>
+          <t>24.276</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.632</t>
+          <t>4.921</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>29.406</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>3.697</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>59.939</t>
+          <t>20.614</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.583</t>
+          <t>4.878</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>42.298</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.555</t>
+          <t>3.173</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>41.175</t>
+          <t>22.624</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.594</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>29.195</t>
+          <t>12.804</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>3.422</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>22.378</t>
+          <t>24.167</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.563</t>
+          <t>4.809</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14.548</t>
+          <t>14.175</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.718</t>
+          <t>3.724</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>22.353</t>
+          <t>115.961</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.618</t>
+          <t>4.862</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14.632</t>
+          <t>83.474</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3.691</t>
+          <t>21.475</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>22.371</t>
+          <t>39.501</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.568</t>
+          <t>4.838</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14.627</t>
+          <t>25.454</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3.743</t>
+          <t>6.889</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>22.361</t>
+          <t>21.789</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.603</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14.536</t>
+          <t>12.127</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.666</t>
+          <t>3.369</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22.268</t>
+          <t>22.763</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.606</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14.604</t>
+          <t>12.805</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.658</t>
+          <t>3.458</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>46.788</t>
+          <t>22.668</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3.318</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30.491</t>
+          <t>12.686</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8.327</t>
+          <t>3.464</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19.893</t>
+          <t>22.547</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.575</t>
+          <t>4.861</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12.475</t>
+          <t>12.607</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.265</t>
+          <t>3.408</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>54.747</t>
+          <t>70.36</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.544</t>
+          <t>4.759</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>39.149</t>
+          <t>49.439</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.376</t>
+          <t>13.378</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21.96</t>
+          <t>21.993</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.575</t>
+          <t>4.813</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14.243</t>
+          <t>12.277</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.375</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21.877</t>
+          <t>82.425</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2.528</t>
+          <t>4.752</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14.202</t>
+          <t>57.436</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>14.67</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22.782</t>
+          <t>22.284</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2.547</t>
+          <t>4.822</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14.561</t>
+          <t>12.493</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.456</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21.976</t>
+          <t>22.293</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.559</t>
+          <t>4.799</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14.251</t>
+          <t>12.554</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.622</t>
+          <t>3.415</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22.578</t>
+          <t>24.077</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2.564</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14.512</t>
+          <t>14.038</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.624</t>
+          <t>3.672</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21.993</t>
+          <t>24.02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.571</t>
+          <t>4.868</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14.438</t>
+          <t>13.965</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.742</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>45.018</t>
+          <t>22.382</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2.662</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>33.028</t>
+          <t>12.586</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7.375</t>
+          <t>3.395</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20.229</t>
+          <t>39.201</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.896</t>
+          <t>4.847</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12.424</t>
+          <t>25.619</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.432</t>
+          <t>6.764</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>23.177</t>
+          <t>22.295</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.656</t>
+          <t>4.878</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15.151</t>
+          <t>12.582</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.803</t>
+          <t>3.343</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>23.135</t>
+          <t>22.006</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2.718</t>
+          <t>4.889</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15.083</t>
+          <t>12.209</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.711</t>
+          <t>3.377</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>41.589</t>
+          <t>345.907</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.773</t>
+          <t>4.902</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>29.521</t>
+          <t>258.924</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.028</t>
+          <t>68.971</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>57.876</t>
+          <t>211.351</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.594</t>
+          <t>4.849</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>40.681</t>
+          <t>158.453</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.409</t>
+          <t>40.965</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>65.875</t>
+          <t>61.181</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>4.862</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>47.753</t>
+          <t>42.272</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12.996</t>
+          <t>10.873</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>49.555</t>
+          <t>25.216</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2.798</t>
+          <t>5.015</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>34.662</t>
+          <t>15.083</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>9.438</t>
+          <t>3.644</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3.259</t>
+          <t>42.294</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2.271</t>
+          <t>4.854</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>28.08</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7.087</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>23.753</t>
+          <t>26.473</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.297</t>
+          <t>4.898</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14.266</t>
+          <t>16.097</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.583</t>
+          <t>3.956</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20.501</t>
+          <t>150.173</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.283</t>
+          <t>4.989</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13.006</t>
+          <t>110.874</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.476</t>
+          <t>30.292</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>19.322</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.307</t>
+          <t>4.975</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12.222</t>
+          <t>12.844</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3.366</t>
+          <t>3.399</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>19.357</t>
+          <t>22.973</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2.314</t>
+          <t>5.003</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12.235</t>
+          <t>12.869</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.391</t>
+          <t>3.485</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>22.376</t>
+          <t>27.848</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.992</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>13.925</t>
+          <t>17.187</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3.605</t>
+          <t>4.076</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>22.548</t>
+          <t>27.866</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2.314</t>
+          <t>4.984</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14.104</t>
+          <t>17.129</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3.587</t>
+          <t>4.103</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22.356</t>
+          <t>22.334</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2.361</t>
+          <t>4.988</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>14.056</t>
+          <t>12.475</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.617</t>
+          <t>3.396</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>22.157</t>
+          <t>24.434</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.282</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14.044</t>
+          <t>14.205</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.738</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>22.141</t>
+          <t>99.602</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2.336</t>
+          <t>4.889</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>13.985</t>
+          <t>71.791</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3.518</t>
+          <t>18.268</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>22.375</t>
+          <t>21.828</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.261</t>
+          <t>4.822</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>14.006</t>
+          <t>12.182</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.552</t>
+          <t>3.404</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>22.099</t>
+          <t>24.98</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.249</t>
+          <t>4.894</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>14.475</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3.551</t>
+          <t>3.561</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>24.907</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.225</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>13.764</t>
+          <t>13.894</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.563</t>
+          <t>3.547</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21.605</t>
+          <t>198.309</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2.239</t>
+          <t>4.944</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>145.991</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3.808</t>
+          <t>38.581</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21.547</t>
+          <t>25.68</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.232</t>
+          <t>4.909</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>13.554</t>
+          <t>14.157</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3.527</t>
+          <t>3.614</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>22.516</t>
+          <t>44.467</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.247</t>
+          <t>4.953</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14.014</t>
+          <t>29.874</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3.627</t>
+          <t>7.562</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>22.552</t>
+          <t>27.778</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.214</t>
+          <t>4.958</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14.051</t>
+          <t>17.106</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3.603</t>
+          <t>4.125</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21.509</t>
+          <t>28.014</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.208</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>13.547</t>
+          <t>17.377</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.508</t>
+          <t>4.135</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>27.791</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2.202</t>
+          <t>4.996</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13.537</t>
+          <t>17.116</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.466</t>
+          <t>4.096</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>57.505</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>4.938</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>40.582</t>
+          <t>17.218</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10.485</t>
+          <t>4.177</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>57.72</t>
+          <t>27.615</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2.207</t>
+          <t>4.851</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>40.659</t>
+          <t>16.974</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10.616</t>
+          <t>4.165</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>57.394</t>
+          <t>63.794</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.208</t>
+          <t>4.918</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>40.568</t>
+          <t>45.103</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10.393</t>
+          <t>11.166</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>57.722</t>
+          <t>43.926</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.156</t>
+          <t>4.925</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>40.742</t>
+          <t>29.572</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10.591</t>
+          <t>7.405</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>57.834</t>
+          <t>84.616</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2.234</t>
+          <t>4.891</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>40.689</t>
+          <t>59.414</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10.634</t>
+          <t>16.031</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>58.078</t>
+          <t>47.472</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.202</t>
+          <t>4.762</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>40.667</t>
+          <t>32.047</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10.941</t>
+          <t>8.369</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21.721</t>
+          <t>30.446</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.237</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>13.805</t>
+          <t>18.936</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3.539</t>
+          <t>4.585</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>21.638</t>
+          <t>69.429</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2.165</t>
+          <t>5.192</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>13.83</t>
+          <t>47.859</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.531</t>
+          <t>12.037</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>21.657</t>
+          <t>83.307</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2.152</t>
+          <t>5.163</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>13.924</t>
+          <t>59.658</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3.527</t>
+          <t>15.206</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>21.604</t>
+          <t>47.359</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2.132</t>
+          <t>4.917</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>13.885</t>
+          <t>32.103</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.567</t>
+          <t>7.751</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>21.823</t>
+          <t>28.521</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2.124</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>13.995</t>
+          <t>17.425</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.562</t>
+          <t>4.173</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>21.612</t>
+          <t>21.867</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2.123</t>
+          <t>5.088</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>13.825</t>
+          <t>11.944</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.549</t>
+          <t>3.451</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>38.944</t>
+          <t>28.137</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2.167</t>
+          <t>4.964</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>27.003</t>
+          <t>17.404</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>4.173</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>57.286</t>
+          <t>44.125</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2.159</t>
+          <t>4.846</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>40.438</t>
+          <t>29.054</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10.577</t>
+          <t>7.577</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>38.938</t>
+          <t>28.152</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>4.949</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>27.007</t>
+          <t>17.509</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>7.076</t>
+          <t>4.075</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>57.316</t>
+          <t>28.442</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2.094</t>
+          <t>5.084</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>40.507</t>
+          <t>17.709</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10.563</t>
+          <t>4.095</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21.302</t>
+          <t>29.043</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2.158</t>
+          <t>4.919</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>13.501</t>
+          <t>17.857</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3.526</t>
+          <t>4.662</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>23.343</t>
+          <t>23.484</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3.852</t>
+          <t>4.824</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>13.831</t>
+          <t>13.336</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.522</t>
+          <t>3.597</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3.273</t>
+          <t>28.755</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2.226</t>
+          <t>4.841</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>18.104</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.135</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3.175</t>
+          <t>30.362</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>5.032</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>19.431</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>4.099</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>21.265</t>
+          <t>24.907</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2.128</t>
+          <t>4.791</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>13.461</t>
+          <t>14.86</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3.526</t>
+          <t>3.786</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>36.573</t>
+          <t>28.955</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2.192</t>
+          <t>4.825</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>25.287</t>
+          <t>18.074</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>6.932</t>
+          <t>4.469</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>17.361</t>
+          <t>23.477</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2.196</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>10.298</t>
+          <t>13.176</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3.066</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>23.611</t>
+          <t>64.754</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2.334</t>
+          <t>4.879</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>15.465</t>
+          <t>45.568</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.632</t>
+          <t>11.541</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>39.149</t>
+          <t>38.607</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2.173</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>27.481</t>
+          <t>25.019</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.983</t>
+          <t>6.865</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3.176</t>
+          <t>44.214</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2.144</t>
+          <t>4.653</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>29.431</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7.78</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>19.237</t>
+          <t>44.187</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>4.611</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12.319</t>
+          <t>30.375</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3.353</t>
+          <t>7.269</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>19.009</t>
+          <t>23.739</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2.162</t>
+          <t>4.591</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12.184</t>
+          <t>13.805</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3.322</t>
+          <t>3.581</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>37.834</t>
+          <t>25.001</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.923</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>26.036</t>
+          <t>14.517</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>6.729</t>
+          <t>3.765</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>22.404</t>
+          <t>25.281</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2.072</t>
+          <t>4.577</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>13.932</t>
+          <t>14.45</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3.565</t>
+          <t>3.692</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3.163</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2.113</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.671</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>3.841</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3.035</t>
+          <t>21.897</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2.007</t>
+          <t>4.871</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.415</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20.16</t>
+          <t>26.565</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2.028</t>
+          <t>4.555</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>12.938</t>
+          <t>16.411</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3.481</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>57.055</t>
+          <t>38.413</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.997</t>
+          <t>4.551</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>40.503</t>
+          <t>24.961</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10.689</t>
+          <t>7.029</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2.971</t>
+          <t>27.078</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.962</t>
+          <t>4.616</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>15.794</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.985</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2.954</t>
+          <t>60.493</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.952</t>
+          <t>4.656</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>42.002</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>10.717</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2.964</t>
+          <t>25.512</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.965</t>
+          <t>4.498</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.747</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.753</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>22.532</t>
+          <t>28.874</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.905</t>
+          <t>4.784</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>18.442</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3.598</t>
+          <t>4.134</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>21.952</t>
+          <t>27.225</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.917</t>
+          <t>5.087</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>13.662</t>
+          <t>15.834</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3.617</t>
+          <t>3.729</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>21.248</t>
+          <t>44.389</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2.052</t>
+          <t>4.639</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>13.486</t>
+          <t>30.561</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3.413</t>
+          <t>7.326</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>54.584</t>
+          <t>23.698</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.886</t>
+          <t>5.015</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>38.611</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>10.798</t>
+          <t>3.48</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>49.216</t>
+          <t>68.654</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.827</t>
+          <t>4.592</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>35.128</t>
+          <t>48.255</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>9.956</t>
+          <t>11.523</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>100.337</t>
+          <t>49.396</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.979</t>
+          <t>5.064</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>73.633</t>
+          <t>33.975</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>20.147</t>
+          <t>7.929</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>61.882</t>
+          <t>26.82</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.397</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>44.875</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12.936</t>
+          <t>3.867</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>21.802</t>
+          <t>42.072</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.598</t>
+          <t>4.478</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>14.312</t>
+          <t>27.837</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3.677</t>
+          <t>7.345</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>27.719</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.755</t>
+          <t>4.567</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>14.39</t>
+          <t>17.374</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3.687</t>
+          <t>4.147</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>65.61</t>
+          <t>38.702</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.346</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>47.259</t>
+          <t>25.113</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>13.159</t>
+          <t>6.822</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>76.983</t>
+          <t>113.81</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.715</t>
+          <t>4.285</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>56.724</t>
+          <t>83.331</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16.035</t>
+          <t>21.215</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>31.842</t>
+          <t>24.862</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.544</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>22.358</t>
+          <t>15.242</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6.348</t>
+          <t>3.827</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>63.825</t>
+          <t>20.247</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.556</t>
+          <t>4.442</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>46.532</t>
+          <t>11.129</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>12.764</t>
+          <t>3.229</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>44.676</t>
+          <t>21.647</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.429</t>
+          <t>4.576</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>31.835</t>
+          <t>12.272</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>9.224</t>
+          <t>3.346</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>21.989</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>4.344</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>12.613</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.618</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>27.552</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>4.742</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>17.191</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.999</t>
         </is>
       </c>
     </row>

--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,3300 +458,3190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27.28</t>
+          <t>23.209</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>1.441</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.316</t>
+          <t>15.199</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.809</t>
+          <t>3.564</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24.365</t>
+          <t>24.654</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.214</t>
+          <t>1.267</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13.869</t>
+          <t>17.703</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.519</t>
+          <t>3.933</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.266</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.081</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.578</t>
+          <t>7.003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23.939</t>
+          <t>98.417</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.128</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13.502</t>
+          <t>74.562</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>18.141</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23.7</t>
+          <t>38.985</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.085</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.267</t>
+          <t>27.729</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.645</t>
+          <t>7.151</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>99.907</t>
+          <t>25.983</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.157</t>
+          <t>1.271</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>71.718</t>
+          <t>18.687</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.763</t>
+          <t>4.318</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>44.301</t>
+          <t>449.693</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.107</t>
+          <t>1.295</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29.713</t>
+          <t>355.124</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.396</t>
+          <t>80.354</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>57.646</t>
+          <t>149.262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5.074</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>113.835</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.512</t>
+          <t>28.339</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45.053</t>
+          <t>67.607</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.066</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30.203</t>
+          <t>51.147</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.404</t>
+          <t>11.565</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>44.645</t>
+          <t>36.559</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5.055</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28.581</t>
+          <t>24.988</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.668</t>
+          <t>7.666</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24.008</t>
+          <t>374.075</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13.542</t>
+          <t>283.972</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.525</t>
+          <t>77.514</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>132.749</t>
+          <t>135.824</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.141</t>
+          <t>1.339</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>96.456</t>
+          <t>102.066</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24.922</t>
+          <t>26.98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40.239</t>
+          <t>26.539</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26.074</t>
+          <t>19.494</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.956</t>
+          <t>4.198</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>39.677</t>
+          <t>70.18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.997</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25.586</t>
+          <t>53.212</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.964</t>
+          <t>12.741</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>176.07</t>
+          <t>37.335</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.023</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>129.829</t>
+          <t>26.715</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34.681</t>
+          <t>7.308</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>139.912</t>
+          <t>39.719</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5.034</t>
+          <t>1.268</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>101.469</t>
+          <t>28.539</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25.837</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>47.371</t>
+          <t>82.086</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.329</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>32.023</t>
+          <t>61.786</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.335</t>
+          <t>15.732</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>234.514</t>
+          <t>36.088</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.901</t>
+          <t>1.229</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>174.626</t>
+          <t>25.792</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.153</t>
+          <t>7.148</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>45.671</t>
+          <t>69.664</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.117</t>
+          <t>1.493</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>52.931</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.454</t>
+          <t>12.14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>797.974</t>
+          <t>20.277</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5.023</t>
+          <t>1.268</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>599.23</t>
+          <t>13.494</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>169.703</t>
+          <t>3.443</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22.826</t>
+          <t>21.366</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.982</t>
+          <t>1.249</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12.753</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.439</t>
+          <t>3.874</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.863</t>
+          <t>57.617</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.975</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12.877</t>
+          <t>42.541</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>11.222</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26.32</t>
+          <t>37.396</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.965</t>
+          <t>1.269</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13.531</t>
+          <t>26.406</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.548</t>
+          <t>7.024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22.749</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.991</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12.722</t>
+          <t>23.687</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.419</t>
+          <t>5.152</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25.311</t>
+          <t>48.132</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.978</t>
+          <t>1.548</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15.064</t>
+          <t>35.254</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.705</t>
+          <t>8.166</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22.019</t>
+          <t>38.148</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5.031</t>
+          <t>1.268</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12.195</t>
+          <t>26.876</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.368</t>
+          <t>7.133</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23.944</t>
+          <t>202.111</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5.123</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13.318</t>
+          <t>155.061</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.881</t>
+          <t>38.996</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>60.049</t>
+          <t>167.458</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5.368</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>41.15</t>
+          <t>125.977</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10.313</t>
+          <t>32.982</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22.445</t>
+          <t>72.567</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12.501</t>
+          <t>54.386</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.417</t>
+          <t>14.213</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>21.198</t>
+          <t>26.119</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5.002</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11.667</t>
+          <t>18.877</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.222</t>
+          <t>4.207</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>99.668</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.938</t>
+          <t>1.436</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12.704</t>
+          <t>72.267</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.493</t>
+          <t>17.854</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22.908</t>
+          <t>25.661</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.913</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12.797</t>
+          <t>18.651</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.451</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22.603</t>
+          <t>390.986</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5.007</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12.582</t>
+          <t>293.341</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.438</t>
+          <t>73.094</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>38.864</t>
+          <t>41.624</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>25.089</t>
+          <t>29.075</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6.734</t>
+          <t>7.362</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22.004</t>
+          <t>20.476</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5.317</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12.041</t>
+          <t>13.537</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.253</t>
+          <t>3.501</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22.534</t>
+          <t>106.792</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>1.248</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12.576</t>
+          <t>79.393</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.442</t>
+          <t>21.109</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>22.439</t>
+          <t>68.496</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4.924</t>
+          <t>1.237</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12.601</t>
+          <t>52.169</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.395</t>
+          <t>11.892</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22.56</t>
+          <t>232.926</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.916</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12.573</t>
+          <t>180.497</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.505</t>
+          <t>41.987</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21.309</t>
+          <t>135.287</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.946</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11.805</t>
+          <t>99.904</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.244</t>
+          <t>27.581</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>62.88</t>
+          <t>227.328</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.863</t>
+          <t>1.249</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>44.374</t>
+          <t>169.945</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10.952</t>
+          <t>44.06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21.905</t>
+          <t>84.368</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.839</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12.237</t>
+          <t>62.291</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.347</t>
+          <t>16.988</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24.243</t>
+          <t>25.478</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.837</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13.886</t>
+          <t>18.175</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.519</t>
+          <t>4.206</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21.757</t>
+          <t>575.993</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4.835</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12.189</t>
+          <t>441.522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.355</t>
+          <t>111.217</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22.022</t>
+          <t>112.51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4.796</t>
+          <t>1.237</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12.426</t>
+          <t>83.29</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.374</t>
+          <t>21.531</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20.623</t>
+          <t>45.111</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.947</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>33.153</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.148</t>
+          <t>8.033</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42.275</t>
+          <t>48.113</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.815</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>28.277</t>
+          <t>36.026</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.288</t>
+          <t>8.394</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>306.935</t>
+          <t>27.583</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.421</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>231.539</t>
+          <t>19.358</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>60.616</t>
+          <t>5.451</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26.646</t>
+          <t>21.056</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16.242</t>
+          <t>14.164</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.898</t>
+          <t>3.752</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>26.338</t>
+          <t>25.097</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4.884</t>
+          <t>1.335</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16.039</t>
+          <t>18.032</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>4.226</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>25.102</t>
+          <t>48.399</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4.922</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15.011</t>
+          <t>35.755</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.675</t>
+          <t>8.442</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>144.255</t>
+          <t>25.541</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4.898</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>105.489</t>
+          <t>18.409</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>28.002</t>
+          <t>4.378</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21.996</t>
+          <t>26.054</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12.394</t>
+          <t>18.745</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>4.446</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>58.081</t>
+          <t>77.023</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.846</t>
+          <t>1.263</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>39.096</t>
+          <t>58.818</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.433</t>
+          <t>13.756</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24.276</t>
+          <t>43.433</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4.921</t>
+          <t>1.251</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>32.204</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3.697</t>
+          <t>7.563</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20.614</t>
+          <t>61.233</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.878</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>45.547</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3.173</t>
+          <t>11.412</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22.624</t>
+          <t>27.303</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4.899</t>
+          <t>1.315</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12.804</t>
+          <t>20.144</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3.422</t>
+          <t>4.297</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>24.167</t>
+          <t>25.864</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4.809</t>
+          <t>1.358</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14.175</t>
+          <t>18.777</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.724</t>
+          <t>4.161</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>115.961</t>
+          <t>654.462</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4.862</t>
+          <t>1.248</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>83.474</t>
+          <t>498.939</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>21.475</t>
+          <t>126.685</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>39.501</t>
+          <t>37.874</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4.838</t>
+          <t>1.266</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>25.454</t>
+          <t>27.473</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6.889</t>
+          <t>7.056</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>21.789</t>
+          <t>24.964</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>12.127</t>
+          <t>17.985</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.369</t>
+          <t>4.247</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22.763</t>
+          <t>187.802</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12.805</t>
+          <t>146.063</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.458</t>
+          <t>33.754</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>22.668</t>
+          <t>84.304</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12.686</t>
+          <t>64.105</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.464</t>
+          <t>14.888</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22.547</t>
+          <t>137.658</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4.861</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12.607</t>
+          <t>105.409</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.408</t>
+          <t>25.582</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>70.36</t>
+          <t>30.939</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4.759</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>49.439</t>
+          <t>23.016</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13.378</t>
+          <t>4.809</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21.993</t>
+          <t>197.311</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4.813</t>
+          <t>1.203</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12.277</t>
+          <t>148.25</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>37.617</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>82.425</t>
+          <t>25.306</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4.752</t>
+          <t>1.207</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>57.436</t>
+          <t>18.351</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>3.987</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22.284</t>
+          <t>89.252</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4.822</t>
+          <t>1.201</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12.493</t>
+          <t>66.416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.456</t>
+          <t>17.198</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22.293</t>
+          <t>29.768</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4.799</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12.554</t>
+          <t>21.972</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.415</t>
+          <t>4.592</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>24.077</t>
+          <t>45.999</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14.038</t>
+          <t>34.456</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.672</t>
+          <t>8.067</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24.02</t>
+          <t>93.546</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4.868</t>
+          <t>1.186</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>13.965</t>
+          <t>65.415</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.742</t>
+          <t>21.691</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22.382</t>
+          <t>80.438</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4.899</t>
+          <t>1.216</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12.586</t>
+          <t>60.489</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.395</t>
+          <t>14.847</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>39.201</t>
+          <t>39.144</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4.847</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>25.619</t>
+          <t>28.245</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6.764</t>
+          <t>7.205</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22.295</t>
+          <t>60.476</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4.878</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12.582</t>
+          <t>45.666</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.343</t>
+          <t>11.179</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>22.006</t>
+          <t>37.606</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4.889</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12.209</t>
+          <t>27.123</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.377</t>
+          <t>7.256</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>345.907</t>
+          <t>66.034</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4.902</t>
+          <t>1.245</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>258.924</t>
+          <t>48.654</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>68.971</t>
+          <t>13.248</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>211.351</t>
+          <t>45.56</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4.849</t>
+          <t>1.249</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>158.453</t>
+          <t>34.146</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>40.965</t>
+          <t>7.958</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>61.181</t>
+          <t>74.389</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4.862</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>42.272</t>
+          <t>55.08</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>10.873</t>
+          <t>14.357</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>25.216</t>
+          <t>220.974</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5.015</t>
+          <t>1.208</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15.083</t>
+          <t>167.36</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3.644</t>
+          <t>44.43</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42.294</t>
+          <t>295.776</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4.854</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>28.08</t>
+          <t>223.483</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7.087</t>
+          <t>59.215</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>26.473</t>
+          <t>17.379</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4.898</t>
+          <t>1.216</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16.097</t>
+          <t>11.438</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.956</t>
+          <t>3.232</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>150.173</t>
+          <t>233.712</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4.989</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>110.874</t>
+          <t>173.274</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>30.292</t>
+          <t>43.319</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>35.474</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4.975</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12.844</t>
+          <t>25.119</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3.399</t>
+          <t>6.834</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>22.973</t>
+          <t>96.639</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5.003</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12.869</t>
+          <t>68.902</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.485</t>
+          <t>17.836</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>27.848</t>
+          <t>18.574</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4.992</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17.187</t>
+          <t>12.393</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.076</t>
+          <t>3.402</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>27.866</t>
+          <t>39.113</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4.984</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17.129</t>
+          <t>28.322</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4.103</t>
+          <t>7.015</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22.334</t>
+          <t>18.521</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4.988</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12.475</t>
+          <t>12.406</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.396</t>
+          <t>3.359</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24.434</t>
+          <t>21.271</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4.999</t>
+          <t>1.201</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14.205</t>
+          <t>14.819</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3.738</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>99.602</t>
+          <t>21.173</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4.889</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>71.791</t>
+          <t>14.796</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>18.268</t>
+          <t>3.692</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21.828</t>
+          <t>181.766</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4.822</t>
+          <t>1.216</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12.182</t>
+          <t>136.629</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.404</t>
+          <t>35.817</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>24.98</t>
+          <t>20.979</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4.894</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14.475</t>
+          <t>14.578</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3.561</t>
+          <t>3.64</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>24.907</t>
+          <t>116.84</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>13.894</t>
+          <t>87.832</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.547</t>
+          <t>22.341</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>198.309</t>
+          <t>111.723</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4.944</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>145.991</t>
+          <t>84.353</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>38.581</t>
+          <t>21.876</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>25.68</t>
+          <t>61.782</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4.909</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14.157</t>
+          <t>46.331</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3.614</t>
+          <t>11.201</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>44.467</t>
+          <t>38.513</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>29.874</t>
+          <t>27.789</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>7.562</t>
+          <t>7.112</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27.778</t>
+          <t>142.407</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4.958</t>
+          <t>1.233</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>17.106</t>
+          <t>104.931</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>28.4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>28.014</t>
+          <t>18.772</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.211</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>17.377</t>
+          <t>12.497</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4.135</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>27.791</t>
+          <t>34.062</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4.996</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>17.116</t>
+          <t>24.216</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4.096</t>
+          <t>6.709</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>45.619</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4.938</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>17.218</t>
+          <t>34.205</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4.177</t>
+          <t>7.947</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>27.615</t>
+          <t>199.147</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4.851</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16.974</t>
+          <t>150.275</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4.165</t>
+          <t>39.263</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>63.794</t>
+          <t>20.479</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4.918</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>45.103</t>
+          <t>14.073</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11.166</t>
+          <t>3.657</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>43.926</t>
+          <t>41.807</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4.925</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>29.572</t>
+          <t>30.51</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.405</t>
+          <t>7.665</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>84.616</t>
+          <t>40.324</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>4.891</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>59.414</t>
+          <t>29.538</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>16.031</t>
+          <t>7.494</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>47.472</t>
+          <t>57.092</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4.762</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>32.047</t>
+          <t>42.387</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>8.369</t>
+          <t>10.911</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.446</t>
+          <t>197.148</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>18.936</t>
+          <t>148.621</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4.585</t>
+          <t>38.515</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>69.429</t>
+          <t>307.463</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5.192</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>47.859</t>
+          <t>231.186</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>12.037</t>
+          <t>57.81</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>83.307</t>
+          <t>106.293</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5.163</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>59.658</t>
+          <t>79.973</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>15.206</t>
+          <t>20.794</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>47.359</t>
+          <t>114.743</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4.917</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>32.103</t>
+          <t>86.478</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.751</t>
+          <t>21.485</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>28.521</t>
+          <t>17.325</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.212</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>17.425</t>
+          <t>11.466</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>4.173</t>
+          <t>3.188</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>21.867</t>
+          <t>19.863</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5.088</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>11.944</t>
+          <t>13.171</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.451</t>
+          <t>3.537</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>28.137</t>
+          <t>113.601</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>4.964</t>
+          <t>1.233</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>17.404</t>
+          <t>85.901</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4.173</t>
+          <t>20.326</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>44.125</t>
+          <t>35.42</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4.846</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>29.054</t>
+          <t>25.221</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>7.577</t>
+          <t>6.796</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>28.152</t>
+          <t>35.112</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4.949</t>
+          <t>1.206</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>17.509</t>
+          <t>25.089</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4.075</t>
+          <t>6.712</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>28.442</t>
+          <t>45.601</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5.084</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17.709</t>
+          <t>33.795</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4.095</t>
+          <t>8.045</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>29.043</t>
+          <t>45.18</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4.919</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>17.857</t>
+          <t>33.318</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.662</t>
+          <t>8.004</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>23.484</t>
+          <t>86.887</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4.824</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>13.336</t>
+          <t>63.968</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.597</t>
+          <t>17.144</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>28.755</t>
+          <t>319.333</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4.841</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>18.104</t>
+          <t>243.548</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4.135</t>
+          <t>63.442</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.362</t>
+          <t>47.096</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5.032</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>19.431</t>
+          <t>35.002</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4.099</t>
+          <t>7.876</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>24.907</t>
+          <t>60.745</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>4.791</t>
+          <t>1.229</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>14.86</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3.786</t>
+          <t>11.259</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>28.955</t>
+          <t>104.58</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4.825</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>18.074</t>
+          <t>78.072</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4.469</t>
+          <t>20.917</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>23.477</t>
+          <t>25.28</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>13.176</t>
+          <t>18.187</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.978</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>64.754</t>
+          <t>51.345</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4.879</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>45.568</t>
+          <t>37.367</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>11.541</t>
+          <t>10.102</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>38.607</t>
+          <t>63.903</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>25.019</t>
+          <t>48.023</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.865</t>
+          <t>11.408</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>44.214</t>
+          <t>83.162</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4.653</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>29.431</t>
+          <t>61.072</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>15.122</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>44.187</t>
+          <t>40.442</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4.611</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>30.375</t>
+          <t>29.8</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7.269</t>
+          <t>7.36</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>23.739</t>
+          <t>31.419</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4.591</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>13.805</t>
+          <t>23.514</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3.581</t>
+          <t>4.76</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>25.001</t>
+          <t>23.297</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14.517</t>
+          <t>16.408</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3.765</t>
+          <t>3.855</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>25.281</t>
+          <t>24.222</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>4.577</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>17.258</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3.692</t>
+          <t>4.114</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>45.535</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15.671</t>
+          <t>33.31</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3.841</t>
+          <t>8.033</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>21.897</t>
+          <t>53.202</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4.871</t>
+          <t>1.248</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>40.519</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3.415</t>
+          <t>8.787</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>26.565</t>
+          <t>21.745</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4.555</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>16.411</t>
+          <t>15.289</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.687</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>38.413</t>
+          <t>69.644</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4.551</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>24.961</t>
+          <t>53.148</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>7.029</t>
+          <t>12.297</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>27.078</t>
+          <t>73.619</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4.616</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>15.794</t>
+          <t>56.325</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3.985</t>
+          <t>12.639</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>60.493</t>
+          <t>24.158</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4.656</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>42.002</t>
+          <t>17.076</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>10.717</t>
+          <t>3.874</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>25.512</t>
+          <t>21.028</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4.498</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>15.747</t>
+          <t>14.356</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3.753</t>
+          <t>3.551</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>28.874</t>
+          <t>276.845</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4.784</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>18.442</t>
+          <t>211.346</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>4.134</t>
+          <t>52.88</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>27.225</t>
+          <t>23.122</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5.087</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>15.834</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3.729</t>
+          <t>3.971</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>44.389</t>
+          <t>109.401</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4.639</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>30.561</t>
+          <t>79.581</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>7.326</t>
+          <t>21.058</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>23.698</t>
+          <t>81.964</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>5.015</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>61.592</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>15.369</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>68.654</t>
+          <t>41.742</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4.592</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>48.255</t>
+          <t>29.565</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>11.523</t>
+          <t>7.254</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>49.396</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5.064</t>
+          <t>1.248</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>33.975</t>
+          <t>17.963</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7.929</t>
+          <t>4.246</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>20.913</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4.397</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>14.208</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>3.867</t>
+          <t>3.613</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>42.072</t>
+          <t>21.152</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4.478</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>27.837</t>
+          <t>13.867</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>7.345</t>
+          <t>3.587</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>27.719</t>
+          <t>23.739</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4.567</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>17.374</t>
+          <t>16.773</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4.147</t>
+          <t>4.086</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>38.702</t>
+          <t>39.689</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4.346</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>25.113</t>
+          <t>28.408</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>6.822</t>
+          <t>7.166</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>113.81</t>
+          <t>18.985</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4.285</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>83.331</t>
+          <t>12.653</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>21.215</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>24.862</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>15.242</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>3.827</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>20.247</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>4.442</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>11.129</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>3.229</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>21.647</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>4.576</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>12.272</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>3.346</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>21.989</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>4.344</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>12.613</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>3.618</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>27.552</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>4.742</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>17.191</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>3.999</t>
+          <t>3.454</t>
         </is>
       </c>
     </row>

--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,3190 +458,1848 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23.209</t>
+          <t>47.831</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.441</t>
+          <t>1.662</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.199</t>
+          <t>34.031</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.564</t>
+          <t>7.754</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24.654</t>
+          <t>84.865</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.267</t>
+          <t>1.357</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17.703</t>
+          <t>63.159</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.933</t>
+          <t>15.854</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>1173.309</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.325</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>897.829</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.003</t>
+          <t>221.74</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>98.417</t>
+          <t>250.653</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.406</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>74.562</t>
+          <t>190.903</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.141</t>
+          <t>48.463</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>38.985</t>
+          <t>99.627</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27.729</t>
+          <t>73.821</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.151</t>
+          <t>21.642</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25.983</t>
+          <t>22.671</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.271</t>
+          <t>1.424</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18.687</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.318</t>
+          <t>3.749</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>449.693</t>
+          <t>27.701</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.295</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>355.124</t>
+          <t>20.099</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.354</t>
+          <t>4.491</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>149.262</t>
+          <t>511.47</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.396</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>113.835</t>
+          <t>385.735</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28.339</t>
+          <t>92.38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67.607</t>
+          <t>37.771</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.308</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>51.147</t>
+          <t>27.542</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.565</t>
+          <t>7.058</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>36.559</t>
+          <t>42.282</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24.988</t>
+          <t>30.58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.666</t>
+          <t>7.236</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>374.075</t>
+          <t>134.847</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>283.972</t>
+          <t>104.164</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>77.514</t>
+          <t>24.146</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>135.824</t>
+          <t>90.351</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.339</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>102.066</t>
+          <t>69.906</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26.98</t>
+          <t>15.997</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26.539</t>
+          <t>27.626</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19.494</t>
+          <t>20.217</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.198</t>
+          <t>4.473</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>70.18</t>
+          <t>45.961</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>53.212</t>
+          <t>34.481</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.741</t>
+          <t>8.298</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>37.335</t>
+          <t>24.297</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.272</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26.715</t>
+          <t>17.561</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.308</t>
+          <t>3.925</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>39.719</t>
+          <t>42.565</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>28.539</t>
+          <t>30.239</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.551</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>82.086</t>
+          <t>70.75</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.251</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>61.786</t>
+          <t>52.544</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15.732</t>
+          <t>13.851</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>36.088</t>
+          <t>143.01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>1.196</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>25.792</t>
+          <t>107.107</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.148</t>
+          <t>27.227</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>69.664</t>
+          <t>149.002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.493</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>52.931</t>
+          <t>114.573</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>28.64</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20.277</t>
+          <t>74.233</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>1.263</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13.494</t>
+          <t>54.215</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.443</t>
+          <t>14.651</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21.366</t>
+          <t>89.986</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>67.095</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.874</t>
+          <t>17.366</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>57.617</t>
+          <t>38.634</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>42.541</t>
+          <t>28.051</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11.222</t>
+          <t>7.412</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>37.396</t>
+          <t>50.347</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26.406</t>
+          <t>38.584</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.024</t>
+          <t>8.188</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>236.434</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.284</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23.687</t>
+          <t>181.792</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.152</t>
+          <t>46.091</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>48.132</t>
+          <t>135.117</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.548</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>35.254</t>
+          <t>102.228</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.166</t>
+          <t>25.541</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>38.148</t>
+          <t>21.219</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26.876</t>
+          <t>14.711</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.133</t>
+          <t>3.765</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>202.111</t>
+          <t>20.548</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>155.061</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>38.996</t>
+          <t>3.597</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>167.458</t>
+          <t>44.286</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>125.977</t>
+          <t>33.025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>32.982</t>
+          <t>7.673</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>72.567</t>
+          <t>38.472</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>54.386</t>
+          <t>28.248</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14.213</t>
+          <t>7.306</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26.119</t>
+          <t>244.721</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18.877</t>
+          <t>189.539</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.207</t>
+          <t>44.959</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>99.668</t>
+          <t>36.393</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.436</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>72.267</t>
+          <t>24.98</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17.854</t>
+          <t>8.127</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25.661</t>
+          <t>23.405</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.264</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18.651</t>
+          <t>16.714</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.889</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>390.986</t>
+          <t>32.003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.246</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>293.341</t>
+          <t>22.623</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>73.094</t>
+          <t>6.364</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>41.624</t>
+          <t>43.649</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>29.075</t>
+          <t>32.754</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.362</t>
+          <t>7.531</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20.476</t>
+          <t>121.538</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.222</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13.537</t>
+          <t>91.747</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.501</t>
+          <t>23.743</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>106.792</t>
+          <t>77.394</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>79.393</t>
+          <t>57.435</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21.109</t>
+          <t>15.152</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>68.496</t>
+          <t>40.193</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>52.169</t>
+          <t>29.696</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11.892</t>
+          <t>7.224</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>232.926</t>
+          <t>190.311</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.438</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>180.497</t>
+          <t>145.619</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>41.987</t>
+          <t>36.593</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>135.287</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>99.904</t>
+          <t>15.681</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>27.581</t>
+          <t>3.813</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>227.328</t>
+          <t>44.058</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>169.945</t>
+          <t>30.755</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>44.06</t>
+          <t>7.381</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>84.368</t>
+          <t>18.758</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>62.291</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16.988</t>
+          <t>3.357</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>25.478</t>
+          <t>56.006</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18.175</t>
+          <t>40.615</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.206</t>
+          <t>10.581</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>575.993</t>
+          <t>25.787</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>441.522</t>
+          <t>18.903</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>111.217</t>
+          <t>4.119</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>112.51</t>
+          <t>41.694</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21.531</t>
+          <t>7.481</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45.111</t>
+          <t>51.202</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>33.153</t>
+          <t>38.573</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.033</t>
+          <t>8.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>48.113</t>
+          <t>28.779</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>36.026</t>
+          <t>21.152</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8.394</t>
+          <t>4.672</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27.583</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.324</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>19.358</t>
+          <t>20.657</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.451</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21.056</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14.164</t>
+          <t>19.964</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.752</t>
+          <t>4.606</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>25.097</t>
+          <t>17.551</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18.032</t>
+          <t>11.695</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.226</t>
+          <t>3.238</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>48.399</t>
+          <t>28.453</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>35.755</t>
+          <t>21.092</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8.442</t>
+          <t>4.496</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25.541</t>
+          <t>41.735</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18.409</t>
+          <t>30.416</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.378</t>
+          <t>7.26</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>26.054</t>
+          <t>21.619</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.526</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>18.745</t>
+          <t>14.075</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.446</t>
+          <t>3.656</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>77.023</t>
+          <t>20.759</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>58.818</t>
+          <t>14.189</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13.756</t>
+          <t>3.486</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>43.433</t>
+          <t>19.386</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.251</t>
+          <t>1.284</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>32.204</t>
+          <t>13.111</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7.563</t>
+          <t>3.534</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>61.233</t>
+          <t>36.496</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>45.547</t>
+          <t>26.434</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11.412</t>
+          <t>6.927</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27.303</t>
+          <t>22.361</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.315</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20.144</t>
+          <t>15.201</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.297</t>
+          <t>3.668</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>25.864</t>
+          <t>44.508</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.358</t>
+          <t>1.223</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18.777</t>
+          <t>33.192</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.161</t>
+          <t>8.077</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>654.462</t>
+          <t>202.639</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>1.284</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>498.939</t>
+          <t>155.732</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>126.685</t>
+          <t>39.617</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>37.874</t>
+          <t>123.254</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>1.296</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>27.473</t>
+          <t>92.988</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7.056</t>
+          <t>23.156</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>24.964</t>
+          <t>63.359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>17.985</t>
+          <t>46.396</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.247</t>
+          <t>11.967</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>187.802</t>
+          <t>20.281</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.355</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>146.063</t>
+          <t>13.579</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>33.754</t>
+          <t>3.497</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>84.304</t>
+          <t>22.187</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>64.105</t>
+          <t>15.153</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14.888</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>137.658</t>
+          <t>21.043</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>1.249</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>105.409</t>
+          <t>14.157</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>25.582</t>
+          <t>3.675</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30.939</t>
+          <t>57.823</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>1.231</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23.016</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4.809</t>
+          <t>10.692</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>197.311</t>
+          <t>139.318</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>1.247</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>148.25</t>
+          <t>105.432</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>37.617</t>
+          <t>28.102</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>25.306</t>
+          <t>22.303</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.233</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>18.351</t>
+          <t>15.201</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.987</t>
+          <t>3.817</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>89.252</t>
+          <t>26.775</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.201</t>
+          <t>1.238</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>66.416</t>
+          <t>19.59</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17.198</t>
+          <t>4.212</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>29.768</t>
+          <t>21.996</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>21.972</t>
+          <t>15.462</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.592</t>
+          <t>3.731</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>45.999</t>
+          <t>344.824</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.443</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>34.456</t>
+          <t>268.337</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8.067</t>
+          <t>63.577</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>93.546</t>
+          <t>22.737</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>65.415</t>
+          <t>16.125</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21.691</t>
+          <t>3.789</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>80.438</t>
+          <t>20.161</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.263</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>60.489</t>
+          <t>13.625</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14.847</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>39.144</t>
+          <t>37.523</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>28.245</t>
+          <t>26.977</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.205</t>
+          <t>7.018</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>60.476</t>
+          <t>104.769</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>45.666</t>
+          <t>77.992</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11.179</t>
+          <t>19.472</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>37.606</t>
+          <t>20.401</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.454</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>27.123</t>
+          <t>12.955</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7.256</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>66.034</t>
+          <t>22.547</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.245</t>
+          <t>1.274</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>48.654</t>
+          <t>15.453</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13.248</t>
+          <t>3.646</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>45.56</t>
+          <t>38.947</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>34.146</t>
+          <t>27.172</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.958</t>
+          <t>8.035</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>74.389</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.206</t>
+          <t>1.225</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>55.08</t>
+          <t>19.054</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14.357</t>
+          <t>4.322</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>220.974</t>
+          <t>39.655</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.208</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>167.36</t>
+          <t>28.342</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>7.305</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>295.776</t>
+          <t>22.137</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.246</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>223.483</t>
+          <t>15.601</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>59.215</t>
+          <t>3.816</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17.379</t>
+          <t>67.335</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11.438</t>
+          <t>51.413</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.232</t>
+          <t>12.036</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>233.712</t>
+          <t>353.925</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.252</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>173.274</t>
+          <t>266.936</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>43.319</t>
+          <t>75.313</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>35.474</t>
+          <t>32.229</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.391</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>25.119</t>
+          <t>23.879</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.834</t>
+          <t>5.326</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>96.639</t>
+          <t>47.24</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.488</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>68.902</t>
+          <t>35.672</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17.836</t>
+          <t>7.87</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>18.574</t>
+          <t>29.775</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.352</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12.393</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3.402</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>39.113</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1.226</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>28.322</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>7.015</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>18.521</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1.218</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>12.406</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>3.359</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>21.271</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1.201</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>14.819</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>21.173</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1.217</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>14.796</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>3.692</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>181.766</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1.216</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>136.629</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>35.817</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>20.979</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1.244</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>14.578</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>116.84</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1.236</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>87.832</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>22.341</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>111.723</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1.215</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>84.353</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>21.876</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>61.782</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1.217</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>46.331</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>11.201</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>38.513</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1.262</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>27.789</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>7.112</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>142.407</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1.233</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>104.931</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>28.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>18.772</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1.211</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>12.497</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>34.062</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1.218</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>24.216</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>6.709</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>45.619</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1.224</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>34.205</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>7.947</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>199.147</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1.214</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>150.275</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>39.263</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20.479</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1.238</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>14.073</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>3.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>41.807</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>1.227</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>30.51</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>7.665</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>40.324</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>1.262</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>29.538</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>7.494</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>57.092</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>1.205</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>42.387</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>10.911</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>197.148</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>1.196</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>148.621</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>38.515</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>307.463</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>1.219</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>231.186</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>57.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>106.293</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>1.231</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>79.973</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>20.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>114.743</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>1.239</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>86.478</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>21.485</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>17.325</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>1.212</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>11.466</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>3.188</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>19.863</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>13.171</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>3.537</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>113.601</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1.233</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>85.901</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>20.326</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>35.42</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>25.221</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>35.112</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>1.206</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>25.089</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>6.712</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>45.601</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>33.795</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>8.045</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>45.18</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>1.231</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>33.318</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>8.004</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>86.887</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>1.215</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>63.968</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>17.144</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>319.333</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>1.261</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>243.548</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>63.442</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>47.096</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1.227</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>35.002</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>7.876</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>60.745</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>1.229</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>11.259</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>104.58</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>1.222</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>78.072</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>20.917</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>25.28</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>1.218</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>18.187</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>3.978</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>51.345</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>1.239</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>37.367</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>10.102</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>63.903</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>1.218</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>48.023</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>11.408</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>83.162</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>1.219</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>61.072</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>15.122</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>40.442</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>1.228</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>29.8</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>31.419</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>1.224</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>23.514</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>23.297</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>16.408</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>3.855</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>24.222</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1.236</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>17.258</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>4.114</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>45.535</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>1.227</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>33.31</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>8.033</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>53.202</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>1.248</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>40.519</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>8.787</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>21.745</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>1.209</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>15.289</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>3.687</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>69.644</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>1.231</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>53.148</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>12.297</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>73.619</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1.238</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>56.325</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>12.639</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>24.158</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>1.244</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>17.076</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>3.874</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>21.028</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>1.226</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>14.356</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>3.551</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>276.845</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>1.226</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>211.346</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>52.88</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>23.122</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>1.223</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>16.36</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>3.971</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>109.401</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>79.581</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>21.058</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>81.964</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1.219</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>61.592</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>15.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>41.742</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>1.225</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>29.565</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>7.254</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>1.248</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>17.963</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>4.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>20.913</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>1.234</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>14.208</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>3.613</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>21.152</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>1.234</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>13.867</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>3.587</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>23.739</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>1.223</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>16.773</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>4.086</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>39.689</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>1.231</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>28.408</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>7.166</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>18.985</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>12.653</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>3.454</t>
+          <t>4.445</t>
         </is>
       </c>
     </row>

--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1848 +458,3476 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>47.831</t>
+          <t>43.119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.662</t>
+          <t>1.747</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.031</t>
+          <t>29.184</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.754</t>
+          <t>7.102</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>84.865</t>
+          <t>41.521</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>63.159</t>
+          <t>29.695</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.854</t>
+          <t>8.201</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1173.309</t>
+          <t>19.787</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.325</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>897.829</t>
+          <t>13.333</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>221.74</t>
+          <t>3.646</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>250.653</t>
+          <t>26.354</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.406</t>
+          <t>1.281</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>190.903</t>
+          <t>19.068</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.463</t>
+          <t>4.033</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>99.627</t>
+          <t>237.237</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>73.821</t>
+          <t>180.08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.642</t>
+          <t>47.21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22.671</t>
+          <t>92.153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.424</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>69.385</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.749</t>
+          <t>17.981</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27.701</t>
+          <t>20.925</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.735</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20.099</t>
+          <t>14.129</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.491</t>
+          <t>3.547</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>511.47</t>
+          <t>23.507</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.396</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>385.735</t>
+          <t>16.779</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>3.773</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>37.771</t>
+          <t>44.98</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27.542</t>
+          <t>33.309</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.058</t>
+          <t>8.449</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>42.282</t>
+          <t>25.16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.267</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30.58</t>
+          <t>18.151</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.236</t>
+          <t>4.124</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>134.847</t>
+          <t>84.813</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.263</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>104.164</t>
+          <t>59.968</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24.146</t>
+          <t>16.342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>90.351</t>
+          <t>22.197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.305</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>69.906</t>
+          <t>15.546</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15.997</t>
+          <t>3.819</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>27.626</t>
+          <t>294.139</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.229</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20.217</t>
+          <t>222.602</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.473</t>
+          <t>51.322</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45.961</t>
+          <t>105.426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>34.481</t>
+          <t>80.664</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.298</t>
+          <t>20.142</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24.297</t>
+          <t>19.703</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.272</t>
+          <t>1.445</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17.561</t>
+          <t>13.291</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.925</t>
+          <t>3.471</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>42.565</t>
+          <t>64.575</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30.239</t>
+          <t>47.968</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.551</t>
+          <t>11.701</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>70.75</t>
+          <t>19.257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.251</t>
+          <t>1.239</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>52.544</t>
+          <t>12.846</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13.851</t>
+          <t>3.458</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>143.01</t>
+          <t>110.01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.196</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>107.107</t>
+          <t>84.219</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27.227</t>
+          <t>21.125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>149.002</t>
+          <t>47.997</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>114.573</t>
+          <t>34.982</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28.64</t>
+          <t>9.603</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>74.233</t>
+          <t>154.744</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>54.215</t>
+          <t>115.049</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.651</t>
+          <t>29.495</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>89.986</t>
+          <t>19.819</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.227</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>67.095</t>
+          <t>13.226</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17.366</t>
+          <t>3.534</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>38.634</t>
+          <t>21.218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28.051</t>
+          <t>14.042</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.412</t>
+          <t>3.612</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>50.347</t>
+          <t>39.818</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>38.584</t>
+          <t>27.123</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.188</t>
+          <t>7.757</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>236.434</t>
+          <t>20.269</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.292</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>181.792</t>
+          <t>13.582</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>46.091</t>
+          <t>3.474</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>135.117</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>102.228</t>
+          <t>13.756</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>25.541</t>
+          <t>3.617</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21.219</t>
+          <t>21.672</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14.711</t>
+          <t>14.705</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.765</t>
+          <t>3.764</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20.548</t>
+          <t>23.368</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>16.752</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.597</t>
+          <t>3.898</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>44.286</t>
+          <t>23.851</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.234</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>33.025</t>
+          <t>17.171</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.673</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38.472</t>
+          <t>24.527</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.228</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28.248</t>
+          <t>16.145</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.306</t>
+          <t>3.649</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>244.721</t>
+          <t>149.812</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>189.539</t>
+          <t>112.405</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>44.959</t>
+          <t>28.302</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>36.393</t>
+          <t>26.874</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.296</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>24.98</t>
+          <t>19.332</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.127</t>
+          <t>4.668</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>23.405</t>
+          <t>74.008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.269</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16.714</t>
+          <t>56.709</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.889</t>
+          <t>13.291</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>32.003</t>
+          <t>21.245</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>22.623</t>
+          <t>14.665</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6.364</t>
+          <t>3.827</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43.649</t>
+          <t>37.01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.521</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>32.754</t>
+          <t>25.686</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.531</t>
+          <t>7.261</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>121.538</t>
+          <t>19.583</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.222</t>
+          <t>1.241</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>91.747</t>
+          <t>13.183</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23.743</t>
+          <t>3.504</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>77.394</t>
+          <t>1043.659</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.286</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>57.435</t>
+          <t>805.123</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15.152</t>
+          <t>198.035</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>40.193</t>
+          <t>3358.481</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>1.361</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29.696</t>
+          <t>2563.665</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7.224</t>
+          <t>650.957</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>190.311</t>
+          <t>25.851</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.438</t>
+          <t>1.556</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>145.619</t>
+          <t>18.069</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36.593</t>
+          <t>4.034</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>42.407</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15.681</t>
+          <t>29.707</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.813</t>
+          <t>7.475</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>44.058</t>
+          <t>61.471</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.224</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30.755</t>
+          <t>44.839</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.381</t>
+          <t>11.498</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18.758</t>
+          <t>21.697</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>14.719</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.357</t>
+          <t>3.672</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>56.006</t>
+          <t>45.623</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.204</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>40.615</t>
+          <t>32.455</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.581</t>
+          <t>7.523</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>25.787</t>
+          <t>343.513</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>18.903</t>
+          <t>255.246</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.119</t>
+          <t>76.48</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>41.694</t>
+          <t>683.476</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>2.572</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>646.655</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.481</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>51.202</t>
+          <t>517.602</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>2.581</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>38.573</t>
+          <t>407.323</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>69.65</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>28.779</t>
+          <t>56.813</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.303</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21.152</t>
+          <t>41.977</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.672</t>
+          <t>10.719</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>42.669</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>1.377</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20.657</t>
+          <t>30.664</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>8.168</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>41.884</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.512</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19.964</t>
+          <t>30.841</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.606</t>
+          <t>7.323</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17.551</t>
+          <t>24.561</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.221</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11.695</t>
+          <t>17.568</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.238</t>
+          <t>4.133</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>28.453</t>
+          <t>708.918</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.232</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>21.092</t>
+          <t>576.968</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.496</t>
+          <t>108.769</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>41.735</t>
+          <t>97.362</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>1.405</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>30.416</t>
+          <t>71.955</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>18.77</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21.619</t>
+          <t>139.058</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.526</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14.075</t>
+          <t>104.916</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.656</t>
+          <t>28.282</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20.759</t>
+          <t>36.798</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>1.505</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14.189</t>
+          <t>27.623</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.486</t>
+          <t>5.635</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19.386</t>
+          <t>34.775</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.576</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13.111</t>
+          <t>25.445</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3.534</t>
+          <t>5.882</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>36.496</t>
+          <t>181.641</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.988</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>26.434</t>
+          <t>142.428</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6.927</t>
+          <t>32.821</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22.361</t>
+          <t>106.051</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>2.738</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15.201</t>
+          <t>78.736</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3.668</t>
+          <t>16.537</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>44.508</t>
+          <t>24.223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.408</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>33.192</t>
+          <t>17.205</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8.077</t>
+          <t>3.966</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>202.639</t>
+          <t>80.116</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.284</t>
+          <t>1.281</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>155.732</t>
+          <t>60.326</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>39.617</t>
+          <t>14.963</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>123.254</t>
+          <t>837.35</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.296</t>
+          <t>1.237</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>92.988</t>
+          <t>551.956</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>23.156</t>
+          <t>251.65</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>63.359</t>
+          <t>43.829</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>46.396</t>
+          <t>31.658</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.967</t>
+          <t>7.981</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20.281</t>
+          <t>214.573</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.355</t>
+          <t>1.302</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13.579</t>
+          <t>162.118</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.497</t>
+          <t>37.276</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>22.187</t>
+          <t>76.021</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.215</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15.153</t>
+          <t>53.676</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>14.219</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21.043</t>
+          <t>146.482</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.305</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14.157</t>
+          <t>112.075</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.675</t>
+          <t>26.631</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>57.823</t>
+          <t>427.928</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>42.74</t>
+          <t>311.412</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.692</t>
+          <t>97.884</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>139.318</t>
+          <t>153.824</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>1.348</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>105.432</t>
+          <t>117.085</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>28.102</t>
+          <t>28.28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22.303</t>
+          <t>24.083</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.233</t>
+          <t>1.262</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15.201</t>
+          <t>15.626</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.817</t>
+          <t>4.047</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>26.775</t>
+          <t>297.259</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>1.466</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>19.59</t>
+          <t>228.242</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4.212</t>
+          <t>52.659</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21.996</t>
+          <t>66.195</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15.462</t>
+          <t>46.281</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.731</t>
+          <t>12.19</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>344.824</t>
+          <t>89.049</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.443</t>
+          <t>1.345</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>268.337</t>
+          <t>65.479</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>63.577</t>
+          <t>18.94</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>22.737</t>
+          <t>442.367</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16.125</t>
+          <t>332.931</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.789</t>
+          <t>80.268</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20.161</t>
+          <t>66.611</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>1.261</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>13.625</t>
+          <t>50.368</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>11.799</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>37.523</t>
+          <t>74.434</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.453</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>26.977</t>
+          <t>50.461</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.018</t>
+          <t>15.311</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>104.769</t>
+          <t>41.408</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>1.823</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>77.992</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>19.472</t>
+          <t>4.167</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20.401</t>
+          <t>183.02</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.454</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12.955</t>
+          <t>138.484</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>35.66</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>22.547</t>
+          <t>78.709</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.274</t>
+          <t>1.289</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15.453</t>
+          <t>57.907</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.646</t>
+          <t>14.897</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>38.947</t>
+          <t>213.78</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>1.345</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>27.172</t>
+          <t>161.954</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.035</t>
+          <t>40.049</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>26.76</t>
+          <t>97.433</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.225</t>
+          <t>1.335</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>19.054</t>
+          <t>72.487</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4.322</t>
+          <t>17.332</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>39.655</t>
+          <t>311.136</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>1.216</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>28.342</t>
+          <t>239.009</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7.305</t>
+          <t>60.712</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22.137</t>
+          <t>20.457</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.246</t>
+          <t>1.203</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15.601</t>
+          <t>13.167</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.816</t>
+          <t>3.566</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>67.335</t>
+          <t>37.419</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>1.247</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>51.413</t>
+          <t>26.186</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12.036</t>
+          <t>6.894</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>353.925</t>
+          <t>39.796</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.252</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>266.936</t>
+          <t>27.264</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>75.313</t>
+          <t>7.057</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>32.229</t>
+          <t>125.376</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>1.235</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>23.879</t>
+          <t>94.833</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5.326</t>
+          <t>22.633</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>47.24</t>
+          <t>373.759</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.488</t>
+          <t>1.205</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>35.672</t>
+          <t>286.302</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>69.431</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>29.775</t>
+          <t>252.021</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.249</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>182.954</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.445</t>
+          <t>44.865</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>445.959</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.265</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>341.622</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>146.763</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.212</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>110.458</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>762.85</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.281</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>587.413</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>148.653</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>395.504</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.353</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>300.499</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>74.751</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>625.43</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.236</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>476.35</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>119.273</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>174.494</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.244</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>133.601</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>492.057</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.224</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>380.932</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>90.166</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>136.024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.323</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>101.951</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>27.486</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1796.007</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.242</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1384.824</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>345.217</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>21.942</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.323</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>15.117</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.722</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>26.378</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1.231</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>19.344</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.232</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>21.847</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.223</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15.192</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.758</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>60.225</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.297</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>43.359</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>11.177</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>101.681</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.268</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>69.798</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>16.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>21.192</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1.263</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>13.734</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.684</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>64.803</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.224</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>48.93</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11.234</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20.704</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1.236</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>13.709</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>27.922</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1.286</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>18.949</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.303</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>27.558</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1.219</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>20.405</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.292</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>21.534</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1.255</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>14.942</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.845</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>42.698</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1.261</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>30.518</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.463</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>19.991</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>13.467</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>139.436</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1.308</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>103.063</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>27.699</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>85.443</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1.266</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>64.292</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>15.937</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>24.451</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1.281</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>17.011</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.432</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>360.322</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1.248</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>272.363</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>68.335</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1.312</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>51.602</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>14.841</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>253.831</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1.277</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>190.885</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>46.315</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>203.035</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1.234</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>154.137</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>41.258</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>78.126</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>61.131</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>12.449</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>219.34</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1.224</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>168.089</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>43.126</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>53.772</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>38.725</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>10.286</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>49.106</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1.238</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>75.301</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1.228</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>55.905</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>14.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>351.038</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>256.299</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>63.503</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20.384</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1.215</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>13.566</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.577</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>51.468</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1.249</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>36.737</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>11.536</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>26.018</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1.262</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>17.963</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.197</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>21.362</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1.227</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>14.426</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.666</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>135.021</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1.324</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>102.239</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>25.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>102.163</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1.248</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>76.555</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>18.549</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>34.791</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6.856</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>40.694</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1.221</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>29.738</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>7.319</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>270.603</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>204.506</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>54.445</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>114.272</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1.192</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>84.219</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>21.627</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>215.903</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1.221</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>165.024</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>41.841</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>753.851</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1.203</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>548.929</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>135.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>24.122</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1.228</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>16.423</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4.193</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>500.015</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1.219</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>379.446</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>96.383</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>90.842</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2.028</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>70.331</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>15.307</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>39.055</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1.229</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>26.676</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>7.261</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20.962</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>14.032</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>25.965</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1.477</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>18.554</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.765</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>37.349</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1.214</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>26.614</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>60.757</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1.351</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>45.636</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>10.967</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>18.912</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1.199</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>12.669</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>42.963</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1.202</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>7.422</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>36.207</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1.266</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>26.617</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>5.083</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>39.381</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1.213</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>28.018</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>7.423</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>64.953</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>49.838</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>11.449</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>26.339</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1.214</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>15.552</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.686</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>27.938</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1.236</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>20.421</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4.646</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>58.136</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1.234</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>42.712</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>10.976</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>42.616</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1.378</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>30.075</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>7.422</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>19.879</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1.301</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>13.344</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.566</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>26.982</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1.353</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>19.568</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4.404</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>26.343</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1.329</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>19.162</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>22.127</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1.274</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>15.044</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>25.154</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>18.206</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.044</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>100.208</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1.224</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>75.583</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>19.478</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>40.362</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1.215</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>29.706</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>7.392</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>37.662</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1.196</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>27.327</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>7.205</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>77.305</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1.243</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>56.512</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>14.529</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>22.453</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1.217</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>15.418</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.642</t>
         </is>
       </c>
     </row>

--- a/pythonScripts/timing_data.xlsx
+++ b/pythonScripts/timing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,3476 +458,3300 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>43.119</t>
+          <t>98.648</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.747</t>
+          <t>19.762</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29.184</t>
+          <t>58.385</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.102</t>
+          <t>15.299</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41.521</t>
+          <t>158.274</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>19.658</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29.695</t>
+          <t>96.094</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.201</t>
+          <t>24.004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19.787</t>
+          <t>173.189</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>19.453</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.333</t>
+          <t>116.361</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.646</t>
+          <t>31.727</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26.354</t>
+          <t>141.242</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>19.334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19.068</t>
+          <t>92.503</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.033</t>
+          <t>23.964</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>237.237</t>
+          <t>118.769</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.257</t>
+          <t>18.627</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>180.08</t>
+          <t>76.917</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47.21</t>
+          <t>19.494</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>92.153</t>
+          <t>42.78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>19.23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>69.385</t>
+          <t>17.839</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.981</t>
+          <t>4.011</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20.925</t>
+          <t>139.716</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.735</t>
+          <t>18.797</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14.129</t>
+          <t>90.735</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.547</t>
+          <t>22.778</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>23.507</t>
+          <t>162.15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>18.651</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16.779</t>
+          <t>108.62</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.773</t>
+          <t>28.461</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>44.98</t>
+          <t>66.365</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>18.491</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>33.309</t>
+          <t>34.711</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.449</t>
+          <t>8.498</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>147.69</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.267</t>
+          <t>18.463</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18.151</t>
+          <t>97.473</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.124</t>
+          <t>26.793</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>84.813</t>
+          <t>39.302</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>18.671</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>59.968</t>
+          <t>15.255</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.342</t>
+          <t>3.55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22.197</t>
+          <t>257.723</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15.546</t>
+          <t>181.086</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.819</t>
+          <t>48.911</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>294.139</t>
+          <t>38.189</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>18.839</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>222.602</t>
+          <t>13.737</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51.322</t>
+          <t>3.656</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>105.426</t>
+          <t>42.367</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>18.824</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>80.664</t>
+          <t>16.144</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20.142</t>
+          <t>3.812</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19.703</t>
+          <t>36.872</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>18.555</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13.291</t>
+          <t>12.917</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.471</t>
+          <t>3.685</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>64.575</t>
+          <t>58.507</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>18.918</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>47.968</t>
+          <t>28.111</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.701</t>
+          <t>7.319</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19.257</t>
+          <t>102.88</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.239</t>
+          <t>18.617</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12.846</t>
+          <t>60.773</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.458</t>
+          <t>15.139</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>110.01</t>
+          <t>71.758</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>18.681</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>84.219</t>
+          <t>38.807</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21.125</t>
+          <t>10.478</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>47.997</t>
+          <t>41.576</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>18.284</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>34.982</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.603</t>
+          <t>4.234</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>154.744</t>
+          <t>38.077</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>18.541</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>115.049</t>
+          <t>14.294</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29.495</t>
+          <t>3.613</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19.819</t>
+          <t>35.729</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>18.574</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13.226</t>
+          <t>12.204</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.534</t>
+          <t>3.408</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21.218</t>
+          <t>35.615</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>18.541</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14.042</t>
+          <t>12.248</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.612</t>
+          <t>3.247</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>39.818</t>
+          <t>35.925</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>18.596</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>27.123</t>
+          <t>12.442</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.757</t>
+          <t>3.359</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20.269</t>
+          <t>36.95</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.292</t>
+          <t>18.765</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13.582</t>
+          <t>13.098</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.474</t>
+          <t>3.408</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>86.761</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13.756</t>
+          <t>48.795</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.617</t>
+          <t>11.975</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21.672</t>
+          <t>51.69</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>18.631</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14.705</t>
+          <t>24.533</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.764</t>
+          <t>6.596</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23.368</t>
+          <t>39.499</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>18.808</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16.752</t>
+          <t>14.149</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.898</t>
+          <t>3.658</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>23.851</t>
+          <t>42.101</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>18.733</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17.171</t>
+          <t>17.961</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.865</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24.527</t>
+          <t>38.92</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>18.936</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16.145</t>
+          <t>13.562</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.649</t>
+          <t>3.565</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>149.812</t>
+          <t>38.919</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>18.83</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>112.405</t>
+          <t>13.671</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28.302</t>
+          <t>3.613</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>26.874</t>
+          <t>37.002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.296</t>
+          <t>19.199</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19.332</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.668</t>
+          <t>3.527</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>74.008</t>
+          <t>37.883</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>18.861</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>56.709</t>
+          <t>13.624</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13.291</t>
+          <t>3.533</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21.245</t>
+          <t>37.319</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>19.351</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14.665</t>
+          <t>12.946</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.434</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37.01</t>
+          <t>37.533</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.521</t>
+          <t>18.563</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>25.686</t>
+          <t>13.568</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.261</t>
+          <t>3.574</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19.583</t>
+          <t>38.703</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.241</t>
+          <t>18.616</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13.183</t>
+          <t>14.739</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.504</t>
+          <t>3.756</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1043.659</t>
+          <t>45.554</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>18.72</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>805.123</t>
+          <t>20.209</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>198.035</t>
+          <t>4.772</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3358.481</t>
+          <t>193.083</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.361</t>
+          <t>18.569</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2563.665</t>
+          <t>133.071</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>650.957</t>
+          <t>33.699</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>25.851</t>
+          <t>78.595</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.556</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18.069</t>
+          <t>42.761</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.034</t>
+          <t>10.925</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>42.407</t>
+          <t>36.571</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>19.388</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29.707</t>
+          <t>12.132</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.475</t>
+          <t>3.589</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>61.471</t>
+          <t>36.472</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>19.263</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>44.839</t>
+          <t>12.455</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11.498</t>
+          <t>3.264</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21.697</t>
+          <t>171.363</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>18.942</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14.719</t>
+          <t>116.333</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.672</t>
+          <t>29.522</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>45.623</t>
+          <t>35.409</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.204</t>
+          <t>18.617</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>32.455</t>
+          <t>11.982</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.523</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>343.513</t>
+          <t>38.393</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>18.781</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>255.246</t>
+          <t>14.396</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>76.48</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>683.476</t>
+          <t>39.044</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.572</t>
+          <t>19.049</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>646.655</t>
+          <t>14.212</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.607</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>517.602</t>
+          <t>43.154</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.581</t>
+          <t>18.705</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>407.323</t>
+          <t>18.345</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>69.65</t>
+          <t>4.361</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>56.813</t>
+          <t>52.738</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.303</t>
+          <t>18.865</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>41.977</t>
+          <t>25.25</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.719</t>
+          <t>6.625</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>42.669</t>
+          <t>65.33</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.377</t>
+          <t>19.011</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30.664</t>
+          <t>34.97</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.168</t>
+          <t>8.103</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41.884</t>
+          <t>133.038</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.512</t>
+          <t>18.895</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30.841</t>
+          <t>86.133</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.323</t>
+          <t>22.746</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24.561</t>
+          <t>56.493</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>19.249</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17.568</t>
+          <t>27.889</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.133</t>
+          <t>7.211</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>708.918</t>
+          <t>73.567</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>18.838</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>576.968</t>
+          <t>40.706</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>108.769</t>
+          <t>10.586</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>97.362</t>
+          <t>67.089</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>18.878</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>71.955</t>
+          <t>35.822</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18.77</t>
+          <t>9.863</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>139.058</t>
+          <t>216.641</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>18.866</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>104.916</t>
+          <t>151.233</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28.282</t>
+          <t>39.362</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>36.798</t>
+          <t>38.111</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.505</t>
+          <t>18.622</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>27.623</t>
+          <t>13.715</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5.635</t>
+          <t>3.667</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>34.775</t>
+          <t>36.266</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.576</t>
+          <t>18.737</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25.445</t>
+          <t>12.632</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5.882</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>181.641</t>
+          <t>36.556</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.988</t>
+          <t>18.881</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>142.428</t>
+          <t>12.652</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>32.821</t>
+          <t>3.425</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>106.051</t>
+          <t>67.415</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.738</t>
+          <t>18.892</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>78.736</t>
+          <t>37.451</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16.537</t>
+          <t>8.631</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>24.223</t>
+          <t>48.124</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.408</t>
+          <t>18.991</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>17.205</t>
+          <t>22.266</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.966</t>
+          <t>4.802</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>80.116</t>
+          <t>51.587</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>18.629</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>60.326</t>
+          <t>22.464</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14.963</t>
+          <t>4.813</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>837.35</t>
+          <t>44.56</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.237</t>
+          <t>18.919</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>551.956</t>
+          <t>18.929</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>251.65</t>
+          <t>4.986</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>43.829</t>
+          <t>37.539</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>18.586</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31.658</t>
+          <t>13.335</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7.981</t>
+          <t>3.497</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>214.573</t>
+          <t>37.44</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.302</t>
+          <t>19.134</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>162.118</t>
+          <t>13.192</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>37.276</t>
+          <t>3.516</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>76.021</t>
+          <t>36.182</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>18.914</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>53.676</t>
+          <t>12.316</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14.219</t>
+          <t>3.405</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>146.482</t>
+          <t>37.799</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>18.689</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>112.075</t>
+          <t>13.464</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>26.631</t>
+          <t>3.546</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>427.928</t>
+          <t>42.314</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>19.272</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>311.412</t>
+          <t>15.617</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>97.884</t>
+          <t>3.817</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>153.824</t>
+          <t>38.663</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1.348</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>117.085</t>
+          <t>13.526</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>3.634</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>24.083</t>
+          <t>41.827</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>19.489</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15.626</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.047</t>
+          <t>3.983</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>297.259</t>
+          <t>37.866</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1.466</t>
+          <t>18.924</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>228.242</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>52.659</t>
+          <t>3.562</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>66.195</t>
+          <t>38.108</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>18.874</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>46.281</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>3.632</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>89.049</t>
+          <t>38.501</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>18.688</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>65.479</t>
+          <t>14.232</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>3.743</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>442.367</t>
+          <t>40.447</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>18.828</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>332.931</t>
+          <t>16.109</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>80.268</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>66.611</t>
+          <t>48.326</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>19.177</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>50.368</t>
+          <t>16.382</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11.799</t>
+          <t>3.953</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>74.434</t>
+          <t>38.909</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.453</t>
+          <t>18.791</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>50.461</t>
+          <t>13.541</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15.311</t>
+          <t>3.733</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>41.408</t>
+          <t>40.759</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.823</t>
+          <t>18.866</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>16.185</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.167</t>
+          <t>4.026</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>183.02</t>
+          <t>41.41</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>19.151</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>138.484</t>
+          <t>16.543</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>35.66</t>
+          <t>4.019</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>78.709</t>
+          <t>48.756</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>18.748</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>57.907</t>
+          <t>22.456</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14.897</t>
+          <t>5.033</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>213.78</t>
+          <t>44.562</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.345</t>
+          <t>18.887</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>161.954</t>
+          <t>18.229</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>40.049</t>
+          <t>4.362</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>97.433</t>
+          <t>36.078</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>18.722</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>72.487</t>
+          <t>12.385</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17.332</t>
+          <t>3.368</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>311.136</t>
+          <t>38.574</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.216</t>
+          <t>18.952</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>239.009</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>60.712</t>
+          <t>3.608</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20.457</t>
+          <t>42.234</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13.167</t>
+          <t>16.192</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.566</t>
+          <t>3.884</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>37.419</t>
+          <t>40.852</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.247</t>
+          <t>19.017</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>26.186</t>
+          <t>15.673</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>3.842</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>39.796</t>
+          <t>43.105</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>19.024</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>27.264</t>
+          <t>15.126</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.057</t>
+          <t>3.903</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>125.376</t>
+          <t>40.044</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.235</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>94.833</t>
+          <t>14.189</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>22.633</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>373.759</t>
+          <t>36.828</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.205</t>
+          <t>18.858</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>286.302</t>
+          <t>12.926</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>69.431</t>
+          <t>3.435</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>252.021</t>
+          <t>41.526</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>19.028</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>182.954</t>
+          <t>16.847</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>44.865</t>
+          <t>4.057</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>445.959</t>
+          <t>50.992</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.265</t>
+          <t>19.834</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>341.622</t>
+          <t>24.467</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>83.49</t>
+          <t>4.75</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>146.763</t>
+          <t>36.277</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.212</t>
+          <t>19.346</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>110.458</t>
+          <t>12.141</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>3.246</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>762.85</t>
+          <t>36.875</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>18.624</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>587.413</t>
+          <t>12.927</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>148.653</t>
+          <t>3.596</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>395.504</t>
+          <t>37.443</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.353</t>
+          <t>19.316</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>300.499</t>
+          <t>12.818</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>74.751</t>
+          <t>3.445</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>625.43</t>
+          <t>64.382</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>18.745</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>476.35</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>119.273</t>
+          <t>9.603</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>174.494</t>
+          <t>40.859</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>18.542</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>133.601</t>
+          <t>16.125</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>3.856</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>492.057</t>
+          <t>36.086</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>18.774</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>380.932</t>
+          <t>12.399</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>90.166</t>
+          <t>3.318</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>136.024</t>
+          <t>82.008</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>18.839</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>101.951</t>
+          <t>48.663</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>27.486</t>
+          <t>11.763</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1796.007</t>
+          <t>35.854</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>19.599</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1384.824</t>
+          <t>11.415</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>345.217</t>
+          <t>3.328</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>21.942</t>
+          <t>36.827</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.323</t>
+          <t>18.588</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15.117</t>
+          <t>12.848</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3.722</t>
+          <t>3.489</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>26.378</t>
+          <t>41.271</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.231</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>19.344</t>
+          <t>16.075</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4.232</t>
+          <t>3.949</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21.847</t>
+          <t>41.088</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>18.588</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15.192</t>
+          <t>16.648</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.758</t>
+          <t>3.961</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>60.225</t>
+          <t>97.063</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>18.401</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>43.359</t>
+          <t>58.919</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>11.177</t>
+          <t>16.394</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>101.681</t>
+          <t>142.966</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.268</t>
+          <t>18.433</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>69.798</t>
+          <t>89.55</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16.678</t>
+          <t>22.395</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>21.192</t>
+          <t>43.984</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.263</t>
+          <t>19.933</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>13.734</t>
+          <t>18.179</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.684</t>
+          <t>4.218</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>64.803</t>
+          <t>43.053</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>19.392</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>48.93</t>
+          <t>17.862</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11.234</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20.704</t>
+          <t>51.92</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>13.709</t>
+          <t>24.713</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.816</t>
+          <t>6.598</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>27.922</t>
+          <t>49.206</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1.286</t>
+          <t>20.27</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>18.949</t>
+          <t>21.665</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4.303</t>
+          <t>4.746</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>27.558</t>
+          <t>40.249</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>19.973</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>20.405</t>
+          <t>14.895</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4.292</t>
+          <t>3.728</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21.534</t>
+          <t>56.15</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.255</t>
+          <t>19.97</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>14.942</t>
+          <t>26.729</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3.845</t>
+          <t>7.129</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>42.698</t>
+          <t>39.815</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.261</t>
+          <t>19.975</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>30.518</t>
+          <t>14.385</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.463</t>
+          <t>3.713</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>19.991</t>
+          <t>39.068</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>13.467</t>
+          <t>13.179</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3.622</t>
+          <t>3.494</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>139.436</t>
+          <t>39.324</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.308</t>
+          <t>19.977</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>103.063</t>
+          <t>13.274</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>27.699</t>
+          <t>3.532</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>85.443</t>
+          <t>39.08</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>19.872</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>64.292</t>
+          <t>14.023</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>15.937</t>
+          <t>3.615</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>24.451</t>
+          <t>39.183</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>19.998</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>17.011</t>
+          <t>13.547</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4.432</t>
+          <t>3.619</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>360.322</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>19.975</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>272.363</t>
+          <t>11.987</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>68.335</t>
+          <t>3.381</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>70.86</t>
+          <t>48.371</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.312</t>
+          <t>19.885</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>51.602</t>
+          <t>21.764</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>14.841</t>
+          <t>4.721</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>253.831</t>
+          <t>36.734</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.277</t>
+          <t>19.936</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>190.885</t>
+          <t>11.937</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>46.315</t>
+          <t>3.321</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>203.035</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>19.852</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>154.137</t>
+          <t>12.134</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>41.258</t>
+          <t>3.37</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>78.126</t>
+          <t>38.158</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>61.131</t>
+          <t>13.288</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>12.449</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>219.34</t>
+          <t>37.162</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>20.204</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>168.089</t>
+          <t>12.065</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>43.126</t>
+          <t>3.393</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>53.772</t>
+          <t>40.415</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>19.779</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>38.725</t>
+          <t>15.047</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10.286</t>
+          <t>3.912</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>49.106</t>
+          <t>38.79</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>20.918</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>30.52</t>
+          <t>12.771</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>75.301</t>
+          <t>39.757</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>20.094</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>55.905</t>
+          <t>14.401</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>14.224</t>
+          <t>3.648</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>351.038</t>
+          <t>39.825</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>20.188</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>256.299</t>
+          <t>14.358</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>63.503</t>
+          <t>3.658</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20.384</t>
+          <t>39.854</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.215</t>
+          <t>20.052</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>13.566</t>
+          <t>14.466</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3.577</t>
+          <t>3.747</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>51.468</t>
+          <t>39.227</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>20.234</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>36.737</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>11.536</t>
+          <t>3.528</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>26.018</t>
+          <t>38.382</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.262</t>
+          <t>20.134</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>17.963</t>
+          <t>13.271</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4.197</t>
+          <t>3.385</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>21.362</t>
+          <t>37.137</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.227</t>
+          <t>20.055</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14.426</t>
+          <t>11.874</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3.666</t>
+          <t>3.398</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>135.021</t>
+          <t>39.179</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.324</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>102.239</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25.436</t>
+          <t>3.662</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>102.163</t>
+          <t>39.048</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>21.454</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>76.555</t>
+          <t>12.424</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>18.549</t>
+          <t>3.442</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>34.791</t>
+          <t>39.857</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>20.319</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>6.856</t>
+          <t>3.614</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>40.694</t>
+          <t>41.489</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>20.376</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>29.738</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>7.319</t>
+          <t>3.823</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>270.603</t>
+          <t>34.22</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>18.743</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>204.506</t>
+          <t>10.889</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>54.445</t>
+          <t>3.101</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>114.272</t>
+          <t>35.691</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>18.202</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>84.219</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>21.627</t>
+          <t>3.362</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>215.903</t>
+          <t>46.708</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>18.397</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>165.024</t>
+          <t>21.752</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>41.841</t>
+          <t>4.654</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>753.851</t>
+          <t>46.535</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.203</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>548.929</t>
+          <t>21.708</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>135.63</t>
+          <t>4.723</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>24.122</t>
+          <t>34.152</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>18.266</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16.423</t>
+          <t>11.272</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4.193</t>
+          <t>3.163</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>500.015</t>
+          <t>34.132</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>18.171</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>379.446</t>
+          <t>11.344</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>96.383</t>
+          <t>3.192</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>90.842</t>
+          <t>76.435</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2.028</t>
+          <t>18.243</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>70.331</t>
+          <t>44.265</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>15.307</t>
+          <t>11.021</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>39.055</t>
+          <t>49.58</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.229</t>
+          <t>18.102</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>26.676</t>
+          <t>23.117</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>7.261</t>
+          <t>6.531</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20.962</t>
+          <t>34.396</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>18.292</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>14.032</t>
+          <t>11.389</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3.504</t>
+          <t>3.256</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>25.965</t>
+          <t>34.961</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.477</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>18.554</t>
+          <t>11.853</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3.765</t>
+          <t>3.703</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>37.349</t>
+          <t>34.664</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>18.162</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>26.614</t>
+          <t>11.788</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>3.248</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>60.757</t>
+          <t>63.462</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.351</t>
+          <t>18.081</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>45.636</t>
+          <t>34.638</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10.967</t>
+          <t>8.132</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>18.912</t>
+          <t>34.093</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>18.2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12.669</t>
+          <t>11.258</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3.436</t>
+          <t>3.188</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>42.963</t>
+          <t>52.891</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.202</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>25.799</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>7.422</t>
+          <t>6.977</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>36.207</t>
+          <t>46.874</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.266</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>26.617</t>
+          <t>21.795</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5.083</t>
+          <t>4.749</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>39.381</t>
+          <t>91.095</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>17.966</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>28.018</t>
+          <t>55.815</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7.423</t>
+          <t>14.376</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>64.953</t>
+          <t>61.957</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>49.838</t>
+          <t>33.867</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>11.449</t>
+          <t>7.838</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>26.339</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>18.018</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15.552</t>
+          <t>44.584</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>3.686</t>
+          <t>11.212</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>27.938</t>
+          <t>46.846</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>18.366</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>20.421</t>
+          <t>21.728</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4.646</t>
+          <t>4.745</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>58.136</t>
+          <t>46.776</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>18.003</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>42.712</t>
+          <t>21.894</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>10.976</t>
+          <t>4.751</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>42.616</t>
+          <t>47.603</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>19.127</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>30.075</t>
+          <t>21.749</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7.422</t>
+          <t>4.723</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>19.879</t>
+          <t>47.393</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.301</t>
+          <t>18.147</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>13.344</t>
+          <t>22.255</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>3.566</t>
+          <t>4.804</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>26.982</t>
+          <t>49.242</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.353</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>19.568</t>
+          <t>23.497</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4.404</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>26.343</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>1.329</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>19.162</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>4.201</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>22.127</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>1.274</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>15.044</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>3.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>25.154</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>18.206</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>4.044</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>100.208</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>1.224</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>75.583</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>19.478</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>40.362</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>1.215</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>29.706</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>7.392</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>37.662</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>1.196</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>27.327</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>7.205</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>77.305</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>1.243</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>56.512</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>14.529</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>22.453</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>1.217</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>15.418</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>3.642</t>
+          <t>5.032</t>
         </is>
       </c>
     </row>
